--- a/Docs/2017_Personal_Finance.xlsx
+++ b/Docs/2017_Personal_Finance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="2"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Breakdown" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="126">
   <si>
     <t>Gross Pay</t>
   </si>
@@ -403,6 +403,24 @@
   </si>
   <si>
     <t>HEB - Grill Supplies</t>
+  </si>
+  <si>
+    <t>Amazon - Monitor</t>
+  </si>
+  <si>
+    <t>Flightpath Coffeehouse</t>
+  </si>
+  <si>
+    <t>HEB</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>Tiff's Treats</t>
+  </si>
+  <si>
+    <t>Chickfila</t>
   </si>
 </sst>
 </file>
@@ -864,7 +882,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1000,6 +1018,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,7 +1040,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1330,22 +1349,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="100"/>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="119"/>
+      <c r="F1" s="121"/>
       <c r="G1" s="100">
         <f>N22</f>
         <v>0</v>
       </c>
       <c r="H1" s="100"/>
-      <c r="J1" s="119" t="s">
+      <c r="J1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="119"/>
+      <c r="K1" s="121"/>
       <c r="L1" s="108">
         <f>N60-B2</f>
-        <v>-104.22999999999956</v>
+        <v>-901.51750000000175</v>
       </c>
       <c r="M1" s="101"/>
     </row>
@@ -2194,7 +2213,7 @@
       </c>
       <c r="B24" s="78">
         <f>Jan!G4</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C24" s="78">
         <f>Feb!G4</f>
@@ -2242,11 +2261,11 @@
       </c>
       <c r="N24" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O24" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.2727272727272725</v>
       </c>
       <c r="XFD24" s="9"/>
     </row>
@@ -2267,7 +2286,7 @@
       </c>
       <c r="B27" s="76">
         <f>Jan!G8</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="C27" s="76">
         <f>Feb!G8</f>
@@ -2315,11 +2334,11 @@
       </c>
       <c r="N27" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O27" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>63.636363636363633</v>
       </c>
     </row>
     <row r="28" spans="1:15 16384:16384" x14ac:dyDescent="0.2">
@@ -2339,7 +2358,7 @@
       </c>
       <c r="B30" s="2">
         <f>Jan!G11</f>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="C30" s="2">
         <f>Feb!G11</f>
@@ -2387,11 +2406,11 @@
       </c>
       <c r="N30" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="O30" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.4090909090909092</v>
       </c>
     </row>
     <row r="31" spans="1:15 16384:16384" x14ac:dyDescent="0.2">
@@ -2400,7 +2419,7 @@
       </c>
       <c r="B31" s="2">
         <f>Jan!G12</f>
-        <v>0</v>
+        <v>21.657499999999999</v>
       </c>
       <c r="C31" s="2">
         <f>Feb!G12</f>
@@ -2448,11 +2467,11 @@
       </c>
       <c r="N31" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.657499999999999</v>
       </c>
       <c r="O31" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.9688636363636363</v>
       </c>
     </row>
     <row r="32" spans="1:15 16384:16384" x14ac:dyDescent="0.2">
@@ -2461,7 +2480,7 @@
       </c>
       <c r="B32" s="2">
         <f>Jan!G13</f>
-        <v>0</v>
+        <v>16.53</v>
       </c>
       <c r="C32" s="2">
         <f>Feb!G13</f>
@@ -2509,11 +2528,11 @@
       </c>
       <c r="N32" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.53</v>
       </c>
       <c r="O32" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5027272727272729</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2583,7 +2602,7 @@
       </c>
       <c r="B34" s="76">
         <f>SUM(B30:B33)</f>
-        <v>0</v>
+        <v>53.6875</v>
       </c>
       <c r="C34" s="76">
         <f t="shared" ref="C34:M34" si="6">SUM(C30:C33)</f>
@@ -2631,11 +2650,11 @@
       </c>
       <c r="N34" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>53.6875</v>
       </c>
       <c r="O34" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.8806818181818183</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -3143,7 +3162,7 @@
       </c>
       <c r="B45" s="67">
         <f t="shared" ref="B45:M45" si="8">SUM(B27,B34,B44)</f>
-        <v>1.2</v>
+        <v>754.88750000000005</v>
       </c>
       <c r="C45" s="67">
         <f>SUM(C27,C34,C44)</f>
@@ -3191,11 +3210,11 @@
       </c>
       <c r="N45" s="80">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>754.88750000000005</v>
       </c>
       <c r="O45" s="80">
         <f t="shared" si="1"/>
-        <v>0.10909090909090909</v>
+        <v>68.626136363636363</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -3215,7 +3234,7 @@
       </c>
       <c r="B48" s="9">
         <f>Jan!J11</f>
-        <v>0</v>
+        <v>36.159999999999997</v>
       </c>
       <c r="C48" s="9">
         <f>Feb!J11</f>
@@ -3263,11 +3282,11 @@
       </c>
       <c r="N48" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36.159999999999997</v>
       </c>
       <c r="O48" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.2872727272727271</v>
       </c>
       <c r="P48" s="9"/>
     </row>
@@ -3339,7 +3358,7 @@
       </c>
       <c r="B50" s="9">
         <f>Jan!J13</f>
-        <v>47.75</v>
+        <v>59.96</v>
       </c>
       <c r="C50" s="9">
         <f>Feb!J13</f>
@@ -3387,11 +3406,11 @@
       </c>
       <c r="N50" s="80">
         <f t="shared" si="0"/>
-        <v>47.75</v>
+        <v>59.96</v>
       </c>
       <c r="O50" s="80">
         <f t="shared" si="1"/>
-        <v>4.3409090909090908</v>
+        <v>5.4509090909090911</v>
       </c>
       <c r="P50" s="9"/>
     </row>
@@ -3463,7 +3482,7 @@
       </c>
       <c r="B52" s="9">
         <f>Jan!J15</f>
-        <v>0</v>
+        <v>14.04</v>
       </c>
       <c r="C52" s="9">
         <f>Feb!J15</f>
@@ -3511,11 +3530,11 @@
       </c>
       <c r="N52" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.04</v>
       </c>
       <c r="O52" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.2763636363636364</v>
       </c>
       <c r="P52" s="9"/>
     </row>
@@ -3525,7 +3544,7 @@
       </c>
       <c r="B53" s="96">
         <f>Jan!J16</f>
-        <v>4.4400000000000004</v>
+        <v>72.19</v>
       </c>
       <c r="C53" s="96">
         <f>Feb!J16</f>
@@ -3573,11 +3592,11 @@
       </c>
       <c r="N53" s="80">
         <f t="shared" si="0"/>
-        <v>4.4400000000000004</v>
+        <v>72.19</v>
       </c>
       <c r="O53" s="80">
         <f t="shared" si="1"/>
-        <v>0.40363636363636368</v>
+        <v>6.5627272727272725</v>
       </c>
       <c r="P53" s="9"/>
     </row>
@@ -3649,7 +3668,7 @@
       </c>
       <c r="B55" s="61">
         <f>Jan!J18</f>
-        <v>6.56</v>
+        <v>0</v>
       </c>
       <c r="C55" s="61">
         <f>Feb!J18</f>
@@ -3697,11 +3716,11 @@
       </c>
       <c r="N55" s="82">
         <f>SUM(B55:M55)</f>
-        <v>6.56</v>
+        <v>0</v>
       </c>
       <c r="O55" s="80">
         <f t="shared" si="1"/>
-        <v>0.59636363636363632</v>
+        <v>0</v>
       </c>
       <c r="P55" s="9"/>
     </row>
@@ -3711,7 +3730,7 @@
       </c>
       <c r="B56" s="67">
         <f>SUM(B48:B55)</f>
-        <v>103.03</v>
+        <v>226.63</v>
       </c>
       <c r="C56" s="67">
         <f>SUM(C48:C55)</f>
@@ -3759,11 +3778,11 @@
       </c>
       <c r="N56" s="80">
         <f t="shared" si="0"/>
-        <v>103.03</v>
+        <v>226.63</v>
       </c>
       <c r="O56" s="80">
         <f t="shared" si="1"/>
-        <v>9.3663636363636371</v>
+        <v>20.602727272727272</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3789,7 +3808,7 @@
       </c>
       <c r="B58" s="77">
         <f>SUM(B45,B56)</f>
-        <v>104.23</v>
+        <v>981.51750000000004</v>
       </c>
       <c r="C58" s="77">
         <f t="shared" ref="C58:M58" si="10">SUM(C45,C56)</f>
@@ -3837,11 +3856,11 @@
       </c>
       <c r="N58" s="85">
         <f t="shared" si="0"/>
-        <v>104.23</v>
+        <v>981.51750000000004</v>
       </c>
       <c r="O58" s="80">
         <f t="shared" si="1"/>
-        <v>9.4754545454545465</v>
+        <v>89.228863636363641</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -3854,59 +3873,59 @@
       </c>
       <c r="B60" s="9">
         <f>B22-B58+B24+B2</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="C60" s="9">
         <f t="shared" ref="C60:M60" si="11">C22+C24-C58+B60</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" si="11"/>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="E60" s="9">
         <f t="shared" si="11"/>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="F60" s="9">
         <f t="shared" si="11"/>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="G60" s="9">
         <f t="shared" si="11"/>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="H60" s="9">
         <f t="shared" si="11"/>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="I60" s="9">
         <f t="shared" si="11"/>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="J60" s="9">
         <f t="shared" si="11"/>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="K60" s="9">
         <f t="shared" si="11"/>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="L60" s="9">
         <f t="shared" si="11"/>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="M60" s="9">
         <f t="shared" si="11"/>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="N60" s="81">
         <f>M60</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="O60" s="80">
         <f t="shared" si="1"/>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
     </row>
   </sheetData>
@@ -3978,7 +3997,7 @@
       </c>
       <c r="G2" s="2">
         <f>Jul!J28</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -4012,56 +4031,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="120" t="s">
+      <c r="L4" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="120"/>
+      <c r="M4" s="122"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="120" t="s">
+      <c r="P4" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="122"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="120" t="s">
+      <c r="T4" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="120"/>
+      <c r="U4" s="122"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="120" t="s">
+      <c r="X4" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="120"/>
+      <c r="Y4" s="122"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="120" t="s">
+      <c r="AB4" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="120"/>
+      <c r="AC4" s="122"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="120" t="s">
+      <c r="AF4" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="120"/>
+      <c r="AG4" s="122"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="120"/>
-      <c r="AK4" s="120"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4079,7 +4098,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -4094,10 +4113,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="123"/>
+      <c r="M6" s="125"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -4141,33 +4160,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="P7" s="125" t="s">
+      <c r="M7" s="126"/>
+      <c r="P7" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="125"/>
-      <c r="T7" s="125" t="s">
+      <c r="Q7" s="127"/>
+      <c r="T7" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="125"/>
-      <c r="X7" s="125" t="s">
+      <c r="U7" s="127"/>
+      <c r="X7" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="125"/>
-      <c r="AB7" s="125" t="s">
+      <c r="Y7" s="127"/>
+      <c r="AB7" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="125"/>
-      <c r="AF7" s="125" t="s">
+      <c r="AC7" s="127"/>
+      <c r="AF7" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="125"/>
+      <c r="AG7" s="127"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="121"/>
-      <c r="AK7" s="121"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4191,57 +4210,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="126" t="s">
+      <c r="L8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="126"/>
+      <c r="M8" s="128"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="126" t="s">
+      <c r="P8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="126"/>
+      <c r="Q8" s="128"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="126" t="s">
+      <c r="T8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="126"/>
+      <c r="U8" s="128"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="126" t="s">
+      <c r="X8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="126"/>
+      <c r="Y8" s="128"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="126" t="s">
+      <c r="AB8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="126"/>
+      <c r="AC8" s="128"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="126" t="s">
+      <c r="AF8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="126"/>
+      <c r="AG8" s="128"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="122"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -4726,7 +4745,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4868,7 +4887,7 @@
       </c>
       <c r="G2" s="2">
         <f>Aug!J28</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -4902,56 +4921,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="120" t="s">
+      <c r="L4" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="120"/>
+      <c r="M4" s="122"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="120" t="s">
+      <c r="P4" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="122"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="120" t="s">
+      <c r="T4" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="120"/>
+      <c r="U4" s="122"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="120" t="s">
+      <c r="X4" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="120"/>
+      <c r="Y4" s="122"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="120" t="s">
+      <c r="AB4" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="120"/>
+      <c r="AC4" s="122"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="120" t="s">
+      <c r="AF4" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="120"/>
+      <c r="AG4" s="122"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="120"/>
-      <c r="AK4" s="120"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4969,7 +4988,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -4984,10 +5003,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="123"/>
+      <c r="M6" s="125"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -5031,33 +5050,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="P7" s="125" t="s">
+      <c r="M7" s="126"/>
+      <c r="P7" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="125"/>
-      <c r="T7" s="125" t="s">
+      <c r="Q7" s="127"/>
+      <c r="T7" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="125"/>
-      <c r="X7" s="125" t="s">
+      <c r="U7" s="127"/>
+      <c r="X7" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="125"/>
-      <c r="AB7" s="125" t="s">
+      <c r="Y7" s="127"/>
+      <c r="AB7" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="125"/>
-      <c r="AF7" s="125" t="s">
+      <c r="AC7" s="127"/>
+      <c r="AF7" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="125"/>
+      <c r="AG7" s="127"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="121"/>
-      <c r="AK7" s="121"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5081,57 +5100,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="126" t="s">
+      <c r="L8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="126"/>
+      <c r="M8" s="128"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="126" t="s">
+      <c r="P8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="126"/>
+      <c r="Q8" s="128"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="126" t="s">
+      <c r="T8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="126"/>
+      <c r="U8" s="128"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="126" t="s">
+      <c r="X8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="126"/>
+      <c r="Y8" s="128"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="126" t="s">
+      <c r="AB8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="126"/>
+      <c r="AC8" s="128"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="126" t="s">
+      <c r="AF8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="126"/>
+      <c r="AG8" s="128"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="122"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -5616,7 +5635,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5758,7 +5777,7 @@
       </c>
       <c r="G2" s="2">
         <f>Sep!J28</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -5792,56 +5811,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="120" t="s">
+      <c r="L4" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="120"/>
+      <c r="M4" s="122"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="120" t="s">
+      <c r="P4" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="122"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="120" t="s">
+      <c r="T4" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="120"/>
+      <c r="U4" s="122"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="120" t="s">
+      <c r="X4" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="120"/>
+      <c r="Y4" s="122"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="120" t="s">
+      <c r="AB4" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="120"/>
+      <c r="AC4" s="122"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="120" t="s">
+      <c r="AF4" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="120"/>
+      <c r="AG4" s="122"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="120"/>
-      <c r="AK4" s="120"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5859,7 +5878,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -5874,10 +5893,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="123"/>
+      <c r="M6" s="125"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -5921,33 +5940,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="P7" s="125" t="s">
+      <c r="M7" s="126"/>
+      <c r="P7" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="125"/>
-      <c r="T7" s="125" t="s">
+      <c r="Q7" s="127"/>
+      <c r="T7" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="125"/>
-      <c r="X7" s="125" t="s">
+      <c r="U7" s="127"/>
+      <c r="X7" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="125"/>
-      <c r="AB7" s="125" t="s">
+      <c r="Y7" s="127"/>
+      <c r="AB7" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="125"/>
-      <c r="AF7" s="125" t="s">
+      <c r="AC7" s="127"/>
+      <c r="AF7" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="125"/>
+      <c r="AG7" s="127"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="121"/>
-      <c r="AK7" s="121"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5971,57 +5990,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="126" t="s">
+      <c r="L8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="126"/>
+      <c r="M8" s="128"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="126" t="s">
+      <c r="P8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="126"/>
+      <c r="Q8" s="128"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="126" t="s">
+      <c r="T8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="126"/>
+      <c r="U8" s="128"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="126" t="s">
+      <c r="X8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="126"/>
+      <c r="Y8" s="128"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="126" t="s">
+      <c r="AB8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="126"/>
+      <c r="AC8" s="128"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="126" t="s">
+      <c r="AF8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="126"/>
+      <c r="AG8" s="128"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="122"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -6506,7 +6525,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6648,7 +6667,7 @@
       </c>
       <c r="G2" s="2">
         <f>Oct!J28</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -6682,56 +6701,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="120" t="s">
+      <c r="L4" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="120"/>
+      <c r="M4" s="122"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="120" t="s">
+      <c r="P4" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="122"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="120" t="s">
+      <c r="T4" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="120"/>
+      <c r="U4" s="122"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="120" t="s">
+      <c r="X4" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="120"/>
+      <c r="Y4" s="122"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="120" t="s">
+      <c r="AB4" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="120"/>
+      <c r="AC4" s="122"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="120" t="s">
+      <c r="AF4" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="120"/>
+      <c r="AG4" s="122"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="120"/>
-      <c r="AK4" s="120"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6749,7 +6768,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -6764,10 +6783,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="123"/>
+      <c r="M6" s="125"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -6811,33 +6830,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="P7" s="125" t="s">
+      <c r="M7" s="126"/>
+      <c r="P7" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="125"/>
-      <c r="T7" s="125" t="s">
+      <c r="Q7" s="127"/>
+      <c r="T7" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="125"/>
-      <c r="X7" s="125" t="s">
+      <c r="U7" s="127"/>
+      <c r="X7" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="125"/>
-      <c r="AB7" s="125" t="s">
+      <c r="Y7" s="127"/>
+      <c r="AB7" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="125"/>
-      <c r="AF7" s="125" t="s">
+      <c r="AC7" s="127"/>
+      <c r="AF7" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="125"/>
+      <c r="AG7" s="127"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="121"/>
-      <c r="AK7" s="121"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6861,57 +6880,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="126" t="s">
+      <c r="L8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="126"/>
+      <c r="M8" s="128"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="126" t="s">
+      <c r="P8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="126"/>
+      <c r="Q8" s="128"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="126" t="s">
+      <c r="T8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="126"/>
+      <c r="U8" s="128"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="126" t="s">
+      <c r="X8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="126"/>
+      <c r="Y8" s="128"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="126" t="s">
+      <c r="AB8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="126"/>
+      <c r="AC8" s="128"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="126" t="s">
+      <c r="AF8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="126"/>
+      <c r="AG8" s="128"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="122"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -7396,7 +7415,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7538,7 +7557,7 @@
       </c>
       <c r="G2" s="2">
         <f>Nov!J28</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -7572,56 +7591,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="120" t="s">
+      <c r="L4" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="120"/>
+      <c r="M4" s="122"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="120" t="s">
+      <c r="P4" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="122"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="120" t="s">
+      <c r="T4" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="120"/>
+      <c r="U4" s="122"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="120" t="s">
+      <c r="X4" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="120"/>
+      <c r="Y4" s="122"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="120" t="s">
+      <c r="AB4" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="120"/>
+      <c r="AC4" s="122"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="120" t="s">
+      <c r="AF4" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="120"/>
+      <c r="AG4" s="122"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="120"/>
-      <c r="AK4" s="120"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7639,7 +7658,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -7654,10 +7673,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="123"/>
+      <c r="M6" s="125"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -7701,33 +7720,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="P7" s="125" t="s">
+      <c r="M7" s="126"/>
+      <c r="P7" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="125"/>
-      <c r="T7" s="125" t="s">
+      <c r="Q7" s="127"/>
+      <c r="T7" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="125"/>
-      <c r="X7" s="125" t="s">
+      <c r="U7" s="127"/>
+      <c r="X7" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="125"/>
-      <c r="AB7" s="125" t="s">
+      <c r="Y7" s="127"/>
+      <c r="AB7" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="125"/>
-      <c r="AF7" s="125" t="s">
+      <c r="AC7" s="127"/>
+      <c r="AF7" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="125"/>
+      <c r="AG7" s="127"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="121"/>
-      <c r="AK7" s="121"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7751,57 +7770,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="126" t="s">
+      <c r="L8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="126"/>
+      <c r="M8" s="128"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="126" t="s">
+      <c r="P8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="126"/>
+      <c r="Q8" s="128"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="126" t="s">
+      <c r="T8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="126"/>
+      <c r="U8" s="128"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="126" t="s">
+      <c r="X8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="126"/>
+      <c r="Y8" s="128"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="126" t="s">
+      <c r="AB8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="126"/>
+      <c r="AC8" s="128"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="126" t="s">
+      <c r="AF8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="126"/>
+      <c r="AG8" s="128"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="122"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -8286,7 +8305,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -8397,7 +8416,7 @@
       </c>
       <c r="B1" s="9">
         <f>Jan!J30+Feb!J30+Mar!J30+Apr!J30+May!J30+Jun!J30+Jul!J30+Aug!J30+Sep!J30+Oct!J30+Nov!J30+'Monthly Breakdown'!B2-20000</f>
-        <v>-1208.369999999999</v>
+        <v>-2005.6575000000012</v>
       </c>
       <c r="G1" s="106" t="s">
         <v>96</v>
@@ -8493,7 +8512,7 @@
   <dimension ref="B1:AL38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8571,65 +8590,66 @@
         <v>33</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <f>80</f>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
         <v>95</v>
       </c>
       <c r="J4" s="9">
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
-        <v>873.53</v>
-      </c>
-      <c r="L4" s="120" t="s">
+        <v>743.37000000000012</v>
+      </c>
+      <c r="L4" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="120"/>
+      <c r="M4" s="122"/>
       <c r="N4" s="9">
         <f>150-N8</f>
-        <v>150</v>
-      </c>
-      <c r="P4" s="120" t="s">
+        <v>113.84</v>
+      </c>
+      <c r="P4" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="122"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>85</v>
       </c>
-      <c r="T4" s="120" t="s">
+      <c r="T4" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="120"/>
+      <c r="U4" s="122"/>
       <c r="V4" s="9">
         <f>200-V8</f>
-        <v>152.25</v>
-      </c>
-      <c r="X4" s="120" t="s">
+        <v>140.04</v>
+      </c>
+      <c r="X4" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="120"/>
+      <c r="Y4" s="122"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>90.72</v>
       </c>
-      <c r="AB4" s="120" t="s">
+      <c r="AB4" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="120"/>
+      <c r="AC4" s="122"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
-        <v>100</v>
-      </c>
-      <c r="AF4" s="120" t="s">
+        <v>85.960000000000008</v>
+      </c>
+      <c r="AF4" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="120"/>
+      <c r="AG4" s="122"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
-        <v>295.56</v>
-      </c>
-      <c r="AJ4" s="120"/>
-      <c r="AK4" s="120"/>
+        <v>227.81</v>
+      </c>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -8647,7 +8667,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>18895.86</v>
+        <v>18975.86</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -8662,10 +8682,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="123"/>
+      <c r="M6" s="125"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -8709,33 +8729,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="P7" s="125" t="s">
+      <c r="M7" s="126"/>
+      <c r="P7" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="125"/>
-      <c r="T7" s="125" t="s">
+      <c r="Q7" s="127"/>
+      <c r="T7" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="125"/>
-      <c r="X7" s="125" t="s">
+      <c r="U7" s="127"/>
+      <c r="X7" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="125"/>
-      <c r="AB7" s="125" t="s">
+      <c r="Y7" s="127"/>
+      <c r="AB7" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="125"/>
-      <c r="AF7" s="125" t="s">
+      <c r="AC7" s="127"/>
+      <c r="AF7" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="125"/>
+      <c r="AG7" s="127"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="121"/>
-      <c r="AK7" s="121"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -8754,62 +8774,62 @@
         <v>74</v>
       </c>
       <c r="G8" s="91">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="126" t="s">
+      <c r="L8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="126"/>
+      <c r="M8" s="128"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="126" t="s">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="P8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="126"/>
+      <c r="Q8" s="128"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>15</v>
       </c>
-      <c r="T8" s="126" t="s">
+      <c r="T8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="126"/>
+      <c r="U8" s="128"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
-        <v>47.75</v>
-      </c>
-      <c r="X8" s="126" t="s">
+        <v>59.96</v>
+      </c>
+      <c r="X8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="126"/>
+      <c r="Y8" s="128"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>9.2799999999999994</v>
       </c>
-      <c r="AB8" s="126" t="s">
+      <c r="AB8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="126"/>
+      <c r="AC8" s="128"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="126" t="s">
+        <v>14.04</v>
+      </c>
+      <c r="AF8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="126"/>
+      <c r="AG8" s="128"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
-        <v>4.4400000000000004</v>
+        <v>72.19</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="122"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -8893,7 +8913,15 @@
         <v>52</v>
       </c>
       <c r="J10" s="49"/>
-      <c r="N10" s="89"/>
+      <c r="L10" s="59">
+        <v>42740</v>
+      </c>
+      <c r="M10" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="120">
+        <v>36.159999999999997</v>
+      </c>
       <c r="P10" s="59">
         <v>42736</v>
       </c>
@@ -8928,8 +8956,8 @@
         <v>119</v>
       </c>
       <c r="AD10" s="89">
-        <f>22.04-22.04</f>
-        <v>0</v>
+        <f>22.04-8</f>
+        <v>14.04</v>
       </c>
       <c r="AF10" s="59">
         <v>42737</v>
@@ -8951,7 +8979,8 @@
         <v>37</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <f>62/4</f>
+        <v>15.5</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
@@ -8959,9 +8988,15 @@
       </c>
       <c r="J11" s="22">
         <f>N8</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="89"/>
+        <v>36.159999999999997</v>
+      </c>
+      <c r="L11" s="59">
+        <v>42743</v>
+      </c>
+      <c r="M11" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="120"/>
       <c r="R11" s="89"/>
       <c r="T11" s="59">
         <v>42736</v>
@@ -8980,8 +9015,8 @@
         <v>118</v>
       </c>
       <c r="AH11" s="89">
-        <f>2.17-2.17</f>
-        <v>0</v>
+        <f>2.17</f>
+        <v>2.17</v>
       </c>
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.2">
@@ -9000,7 +9035,8 @@
         <v>38</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <f>+(33.64+52.99)/4</f>
+        <v>21.657499999999999</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10" t="s">
@@ -9022,7 +9058,16 @@
         <v>8.65</v>
       </c>
       <c r="Z12" s="89"/>
-      <c r="AH12" s="89"/>
+      <c r="AF12" s="59">
+        <v>42739</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH12" s="120">
+        <f>59.69-9.75</f>
+        <v>49.94</v>
+      </c>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
@@ -9040,7 +9085,7 @@
         <v>39</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>16.53</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
@@ -9048,7 +9093,7 @@
       </c>
       <c r="J13" s="22">
         <f>V8</f>
-        <v>47.75</v>
+        <v>59.96</v>
       </c>
       <c r="R13" s="89"/>
       <c r="T13" s="59">
@@ -9061,7 +9106,16 @@
         <v>15.1</v>
       </c>
       <c r="Z13" s="89"/>
-      <c r="AH13" s="89"/>
+      <c r="AF13" s="59">
+        <v>42740</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH13" s="120">
+        <f>8.14</f>
+        <v>8.14</v>
+      </c>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B14" s="29" t="s">
@@ -9089,9 +9143,25 @@
         <f>Z8</f>
         <v>9.2799999999999994</v>
       </c>
-      <c r="V14" s="89"/>
+      <c r="T14" s="59">
+        <v>42741</v>
+      </c>
+      <c r="U14" t="s">
+        <v>125</v>
+      </c>
+      <c r="V14" s="89">
+        <v>12.21</v>
+      </c>
       <c r="Z14" s="89"/>
-      <c r="AH14" s="89"/>
+      <c r="AF14" s="59">
+        <v>42740</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH14" s="89">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B15" s="31" t="s">
@@ -9110,7 +9180,7 @@
       </c>
       <c r="G15" s="91">
         <f>SUM(G11:G14)</f>
-        <v>0</v>
+        <v>53.6875</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
@@ -9118,7 +9188,7 @@
       </c>
       <c r="J15" s="22">
         <f>AD8</f>
-        <v>0</v>
+        <v>14.04</v>
       </c>
       <c r="V15" s="89"/>
       <c r="Z15" s="89"/>
@@ -9143,7 +9213,7 @@
       </c>
       <c r="J16" s="22">
         <f>AH8</f>
-        <v>4.4400000000000004</v>
+        <v>72.19</v>
       </c>
       <c r="V16" s="89"/>
     </row>
@@ -9186,7 +9256,7 @@
       </c>
       <c r="J18" s="22">
         <f>J33</f>
-        <v>6.56</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="89"/>
     </row>
@@ -9203,7 +9273,7 @@
       </c>
       <c r="J19" s="53">
         <f>SUM(J11:J18)</f>
-        <v>103.03</v>
+        <v>226.63</v>
       </c>
     </row>
     <row r="20" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9247,7 +9317,7 @@
       </c>
       <c r="J21" s="93">
         <f>SUM(G26,J19)</f>
-        <v>104.23</v>
+        <v>981.51750000000004</v>
       </c>
       <c r="V21" s="89"/>
     </row>
@@ -9347,7 +9417,7 @@
       </c>
       <c r="G26" s="95">
         <f>SUM(G8,G15,G25)</f>
-        <v>1.2</v>
+        <v>754.88750000000005</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -9371,7 +9441,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9386,7 +9456,7 @@
       </c>
       <c r="J30" s="9">
         <f>J28-G2</f>
-        <v>-104.22999999999956</v>
+        <v>-901.51750000000175</v>
       </c>
     </row>
     <row r="32" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9401,7 +9471,7 @@
       </c>
       <c r="J33" s="115">
         <f>SUM(J35:J38)</f>
-        <v>6.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.2">
@@ -9416,8 +9486,9 @@
       <c r="I35" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="127">
-        <v>6.56</v>
+      <c r="J35" s="119">
+        <f>6.56-6.56</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="9:10" x14ac:dyDescent="0.2">
@@ -9518,7 +9589,7 @@
       </c>
       <c r="G2" s="2">
         <f>Jan!J28</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -9552,56 +9623,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="120" t="s">
+      <c r="L4" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="120"/>
+      <c r="M4" s="122"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="120" t="s">
+      <c r="P4" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="122"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="120" t="s">
+      <c r="T4" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="120"/>
+      <c r="U4" s="122"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="120" t="s">
+      <c r="X4" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="120"/>
+      <c r="Y4" s="122"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="120" t="s">
+      <c r="AB4" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="120"/>
+      <c r="AC4" s="122"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="120" t="s">
+      <c r="AF4" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="120"/>
+      <c r="AG4" s="122"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="120"/>
-      <c r="AK4" s="120"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9619,7 +9690,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -9634,10 +9705,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="123"/>
+      <c r="M6" s="125"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -9681,33 +9752,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="P7" s="125" t="s">
+      <c r="M7" s="126"/>
+      <c r="P7" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="125"/>
-      <c r="T7" s="125" t="s">
+      <c r="Q7" s="127"/>
+      <c r="T7" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="125"/>
-      <c r="X7" s="125" t="s">
+      <c r="U7" s="127"/>
+      <c r="X7" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="125"/>
-      <c r="AB7" s="125" t="s">
+      <c r="Y7" s="127"/>
+      <c r="AB7" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="125"/>
-      <c r="AF7" s="125" t="s">
+      <c r="AC7" s="127"/>
+      <c r="AF7" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="125"/>
+      <c r="AG7" s="127"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="121"/>
-      <c r="AK7" s="121"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9731,57 +9802,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="126" t="s">
+      <c r="L8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="126"/>
+      <c r="M8" s="128"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="126" t="s">
+      <c r="P8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="126"/>
+      <c r="Q8" s="128"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="126" t="s">
+      <c r="T8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="126"/>
+      <c r="U8" s="128"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="126" t="s">
+      <c r="X8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="126"/>
+      <c r="Y8" s="128"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="126" t="s">
+      <c r="AB8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="126"/>
+      <c r="AC8" s="128"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="126" t="s">
+      <c r="AF8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="126"/>
+      <c r="AG8" s="128"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="122"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -10266,7 +10337,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10409,7 +10480,7 @@
       </c>
       <c r="G2" s="2">
         <f>Feb!J28</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -10443,56 +10514,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="120" t="s">
+      <c r="L4" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="120"/>
+      <c r="M4" s="122"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="120" t="s">
+      <c r="P4" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="122"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="120" t="s">
+      <c r="T4" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="120"/>
+      <c r="U4" s="122"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="120" t="s">
+      <c r="X4" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="120"/>
+      <c r="Y4" s="122"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="120" t="s">
+      <c r="AB4" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="120"/>
+      <c r="AC4" s="122"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="120" t="s">
+      <c r="AF4" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="120"/>
+      <c r="AG4" s="122"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="120"/>
-      <c r="AK4" s="120"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10510,7 +10581,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -10525,10 +10596,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="123"/>
+      <c r="M6" s="125"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -10572,33 +10643,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="P7" s="125" t="s">
+      <c r="M7" s="126"/>
+      <c r="P7" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="125"/>
-      <c r="T7" s="125" t="s">
+      <c r="Q7" s="127"/>
+      <c r="T7" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="125"/>
-      <c r="X7" s="125" t="s">
+      <c r="U7" s="127"/>
+      <c r="X7" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="125"/>
-      <c r="AB7" s="125" t="s">
+      <c r="Y7" s="127"/>
+      <c r="AB7" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="125"/>
-      <c r="AF7" s="125" t="s">
+      <c r="AC7" s="127"/>
+      <c r="AF7" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="125"/>
+      <c r="AG7" s="127"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="121"/>
-      <c r="AK7" s="121"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10622,57 +10693,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="126" t="s">
+      <c r="L8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="126"/>
+      <c r="M8" s="128"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="126" t="s">
+      <c r="P8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="126"/>
+      <c r="Q8" s="128"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="126" t="s">
+      <c r="T8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="126"/>
+      <c r="U8" s="128"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="126" t="s">
+      <c r="X8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="126"/>
+      <c r="Y8" s="128"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="126" t="s">
+      <c r="AB8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="126"/>
+      <c r="AC8" s="128"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="126" t="s">
+      <c r="AF8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="126"/>
+      <c r="AG8" s="128"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="122"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -11157,7 +11228,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -11300,7 +11371,7 @@
       </c>
       <c r="G2" s="2">
         <f>Mar!J28</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -11334,56 +11405,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="120" t="s">
+      <c r="L4" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="120"/>
+      <c r="M4" s="122"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="120" t="s">
+      <c r="P4" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="122"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="120" t="s">
+      <c r="T4" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="120"/>
+      <c r="U4" s="122"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="120" t="s">
+      <c r="X4" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="120"/>
+      <c r="Y4" s="122"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="120" t="s">
+      <c r="AB4" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="120"/>
+      <c r="AC4" s="122"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="120" t="s">
+      <c r="AF4" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="120"/>
+      <c r="AG4" s="122"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="120"/>
-      <c r="AK4" s="120"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -11401,7 +11472,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -11416,10 +11487,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="123"/>
+      <c r="M6" s="125"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -11463,33 +11534,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="P7" s="125" t="s">
+      <c r="M7" s="126"/>
+      <c r="P7" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="125"/>
-      <c r="T7" s="125" t="s">
+      <c r="Q7" s="127"/>
+      <c r="T7" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="125"/>
-      <c r="X7" s="125" t="s">
+      <c r="U7" s="127"/>
+      <c r="X7" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="125"/>
-      <c r="AB7" s="125" t="s">
+      <c r="Y7" s="127"/>
+      <c r="AB7" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="125"/>
-      <c r="AF7" s="125" t="s">
+      <c r="AC7" s="127"/>
+      <c r="AF7" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="125"/>
+      <c r="AG7" s="127"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="121"/>
-      <c r="AK7" s="121"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -11513,57 +11584,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="126" t="s">
+      <c r="L8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="126"/>
+      <c r="M8" s="128"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="126" t="s">
+      <c r="P8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="126"/>
+      <c r="Q8" s="128"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="126" t="s">
+      <c r="T8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="126"/>
+      <c r="U8" s="128"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="126" t="s">
+      <c r="X8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="126"/>
+      <c r="Y8" s="128"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="126" t="s">
+      <c r="AB8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="126"/>
+      <c r="AC8" s="128"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="126" t="s">
+      <c r="AF8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="126"/>
+      <c r="AG8" s="128"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="122"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -12048,7 +12119,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -12191,7 +12262,7 @@
       </c>
       <c r="G2" s="2">
         <f>Apr!J28</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -12225,56 +12296,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="120" t="s">
+      <c r="L4" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="120"/>
+      <c r="M4" s="122"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="120" t="s">
+      <c r="P4" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="122"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="120" t="s">
+      <c r="T4" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="120"/>
+      <c r="U4" s="122"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="120" t="s">
+      <c r="X4" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="120"/>
+      <c r="Y4" s="122"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="120" t="s">
+      <c r="AB4" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="120"/>
+      <c r="AC4" s="122"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="120" t="s">
+      <c r="AF4" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="120"/>
+      <c r="AG4" s="122"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="120"/>
-      <c r="AK4" s="120"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -12292,7 +12363,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -12307,10 +12378,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="123"/>
+      <c r="M6" s="125"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -12354,33 +12425,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="P7" s="125" t="s">
+      <c r="M7" s="126"/>
+      <c r="P7" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="125"/>
-      <c r="T7" s="125" t="s">
+      <c r="Q7" s="127"/>
+      <c r="T7" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="125"/>
-      <c r="X7" s="125" t="s">
+      <c r="U7" s="127"/>
+      <c r="X7" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="125"/>
-      <c r="AB7" s="125" t="s">
+      <c r="Y7" s="127"/>
+      <c r="AB7" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="125"/>
-      <c r="AF7" s="125" t="s">
+      <c r="AC7" s="127"/>
+      <c r="AF7" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="125"/>
+      <c r="AG7" s="127"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="121"/>
-      <c r="AK7" s="121"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -12404,57 +12475,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="126" t="s">
+      <c r="L8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="126"/>
+      <c r="M8" s="128"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="126" t="s">
+      <c r="P8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="126"/>
+      <c r="Q8" s="128"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="126" t="s">
+      <c r="T8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="126"/>
+      <c r="U8" s="128"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="126" t="s">
+      <c r="X8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="126"/>
+      <c r="Y8" s="128"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="126" t="s">
+      <c r="AB8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="126"/>
+      <c r="AC8" s="128"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="126" t="s">
+      <c r="AF8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="126"/>
+      <c r="AG8" s="128"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="122"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -12939,7 +13010,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -13081,7 +13152,7 @@
       </c>
       <c r="G2" s="2">
         <f>May!J28</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -13115,56 +13186,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="120" t="s">
+      <c r="L4" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="120"/>
+      <c r="M4" s="122"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="120" t="s">
+      <c r="P4" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="122"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="120" t="s">
+      <c r="T4" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="120"/>
+      <c r="U4" s="122"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="120" t="s">
+      <c r="X4" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="120"/>
+      <c r="Y4" s="122"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="120" t="s">
+      <c r="AB4" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="120"/>
+      <c r="AC4" s="122"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="120" t="s">
+      <c r="AF4" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="120"/>
+      <c r="AG4" s="122"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="120"/>
-      <c r="AK4" s="120"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -13182,7 +13253,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -13197,10 +13268,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="123"/>
+      <c r="M6" s="125"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -13244,33 +13315,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="P7" s="125" t="s">
+      <c r="M7" s="126"/>
+      <c r="P7" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="125"/>
-      <c r="T7" s="125" t="s">
+      <c r="Q7" s="127"/>
+      <c r="T7" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="125"/>
-      <c r="X7" s="125" t="s">
+      <c r="U7" s="127"/>
+      <c r="X7" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="125"/>
-      <c r="AB7" s="125" t="s">
+      <c r="Y7" s="127"/>
+      <c r="AB7" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="125"/>
-      <c r="AF7" s="125" t="s">
+      <c r="AC7" s="127"/>
+      <c r="AF7" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="125"/>
+      <c r="AG7" s="127"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="121"/>
-      <c r="AK7" s="121"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -13294,57 +13365,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="126" t="s">
+      <c r="L8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="126"/>
+      <c r="M8" s="128"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="126" t="s">
+      <c r="P8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="126"/>
+      <c r="Q8" s="128"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="126" t="s">
+      <c r="T8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="126"/>
+      <c r="U8" s="128"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="126" t="s">
+      <c r="X8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="126"/>
+      <c r="Y8" s="128"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="126" t="s">
+      <c r="AB8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="126"/>
+      <c r="AC8" s="128"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="126" t="s">
+      <c r="AF8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="126"/>
+      <c r="AG8" s="128"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="122"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -13829,7 +13900,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -13972,7 +14043,7 @@
       </c>
       <c r="G2" s="2">
         <f>Jun!J28</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -14006,56 +14077,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="120" t="s">
+      <c r="L4" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="120"/>
+      <c r="M4" s="122"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="120" t="s">
+      <c r="P4" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="120"/>
+      <c r="Q4" s="122"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="120" t="s">
+      <c r="T4" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="120"/>
+      <c r="U4" s="122"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="120" t="s">
+      <c r="X4" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="120"/>
+      <c r="Y4" s="122"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="120" t="s">
+      <c r="AB4" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="120"/>
+      <c r="AC4" s="122"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="120" t="s">
+      <c r="AF4" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="120"/>
+      <c r="AG4" s="122"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="120"/>
-      <c r="AK4" s="120"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -14073,7 +14144,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -14088,10 +14159,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="123"/>
+      <c r="M6" s="125"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -14135,33 +14206,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="P7" s="125" t="s">
+      <c r="M7" s="126"/>
+      <c r="P7" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="125"/>
-      <c r="T7" s="125" t="s">
+      <c r="Q7" s="127"/>
+      <c r="T7" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="125"/>
-      <c r="X7" s="125" t="s">
+      <c r="U7" s="127"/>
+      <c r="X7" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="125"/>
-      <c r="AB7" s="125" t="s">
+      <c r="Y7" s="127"/>
+      <c r="AB7" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="125"/>
-      <c r="AF7" s="125" t="s">
+      <c r="AC7" s="127"/>
+      <c r="AF7" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="125"/>
+      <c r="AG7" s="127"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="121"/>
-      <c r="AK7" s="121"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -14185,57 +14256,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="126" t="s">
+      <c r="L8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="126"/>
+      <c r="M8" s="128"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="126" t="s">
+      <c r="P8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="126"/>
+      <c r="Q8" s="128"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="126" t="s">
+      <c r="T8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="126"/>
+      <c r="U8" s="128"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="126" t="s">
+      <c r="X8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="126"/>
+      <c r="Y8" s="128"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="126" t="s">
+      <c r="AB8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="126"/>
+      <c r="AC8" s="128"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="126" t="s">
+      <c r="AF8" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="126"/>
+      <c r="AG8" s="128"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="122"/>
-      <c r="AK8" s="122"/>
+      <c r="AJ8" s="124"/>
+      <c r="AK8" s="124"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -14720,7 +14791,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>18791.63</v>
+        <v>17994.342499999999</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">

--- a/Docs/2017_Personal_Finance.xlsx
+++ b/Docs/2017_Personal_Finance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Breakdown" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="202">
   <si>
     <t>Gross Pay</t>
   </si>
@@ -421,6 +421,234 @@
   </si>
   <si>
     <t>Chickfila</t>
+  </si>
+  <si>
+    <t>Pappadeaux</t>
+  </si>
+  <si>
+    <t>Samsung Gear Watch Face</t>
+  </si>
+  <si>
+    <t>The Tavern</t>
+  </si>
+  <si>
+    <t>Redbox - Deepwater Horizon</t>
+  </si>
+  <si>
+    <t>Academy - Clothes</t>
+  </si>
+  <si>
+    <t>Craft Pride</t>
+  </si>
+  <si>
+    <t>Cinemark - Patriots Day</t>
+  </si>
+  <si>
+    <t>Silo On 7th</t>
+  </si>
+  <si>
+    <t>Maggie Maes</t>
+  </si>
+  <si>
+    <t>Michigan Flyer</t>
+  </si>
+  <si>
+    <t>Sidelines</t>
+  </si>
+  <si>
+    <t>Thaikun</t>
+  </si>
+  <si>
+    <t>Verts</t>
+  </si>
+  <si>
+    <t>Sun N Ski - Board Tune</t>
+  </si>
+  <si>
+    <t>Sun N Ski - Vest/Shirt</t>
+  </si>
+  <si>
+    <t>MOD Pizza</t>
+  </si>
+  <si>
+    <t>ATM Withdrawal</t>
+  </si>
+  <si>
+    <t>Southern Hospitality</t>
+  </si>
+  <si>
+    <t>Burgerfi</t>
+  </si>
+  <si>
+    <t>The Fainting Goat</t>
+  </si>
+  <si>
+    <t>Food Kingdom</t>
+  </si>
+  <si>
+    <t>Luigis</t>
+  </si>
+  <si>
+    <t>Breckenridge Epic Lift Pass</t>
+  </si>
+  <si>
+    <t>Empire Burger</t>
+  </si>
+  <si>
+    <t>Maggie</t>
+  </si>
+  <si>
+    <t>DIA Parking + Denver Train</t>
+  </si>
+  <si>
+    <t>ACME Burgers</t>
+  </si>
+  <si>
+    <t>MSU Law Barristers Ball</t>
+  </si>
+  <si>
+    <t>Panda Express</t>
+  </si>
+  <si>
+    <t>Las Trancas</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>Tysons Tacos</t>
+  </si>
+  <si>
+    <t>Mozarts Coffee</t>
+  </si>
+  <si>
+    <t>Raising Cane's</t>
+  </si>
+  <si>
+    <t>2016 AVG</t>
+  </si>
+  <si>
+    <t>2016 Goal</t>
+  </si>
+  <si>
+    <t>2017 Goal</t>
+  </si>
+  <si>
+    <t>Exxon</t>
+  </si>
+  <si>
+    <t>Uber (Venmo)</t>
+  </si>
+  <si>
+    <t>Okra Charity</t>
+  </si>
+  <si>
+    <t>Coco Crepes</t>
+  </si>
+  <si>
+    <t>Super Bowl Conces.</t>
+  </si>
+  <si>
+    <t>Shady Rays</t>
+  </si>
+  <si>
+    <t>Valero</t>
+  </si>
+  <si>
+    <t>Kendra Scott</t>
+  </si>
+  <si>
+    <t>Roth RSP Savings (10%)</t>
+  </si>
+  <si>
+    <t>1 Stop Food</t>
+  </si>
+  <si>
+    <t>Desano Pizza</t>
+  </si>
+  <si>
+    <t>Hopdoddy</t>
+  </si>
+  <si>
+    <t>UT Basketball Tickets</t>
+  </si>
+  <si>
+    <t>Bungalow</t>
+  </si>
+  <si>
+    <t>Austin Athletics</t>
+  </si>
+  <si>
+    <t>Insomnia Cookie</t>
+  </si>
+  <si>
+    <t>Miami Flight</t>
+  </si>
+  <si>
+    <t>Via 313 Pizza</t>
+  </si>
+  <si>
+    <t>Venmo - Bachelor Condo</t>
+  </si>
+  <si>
+    <t>ATM - Michigan</t>
+  </si>
+  <si>
+    <t>Special Cuts</t>
+  </si>
+  <si>
+    <t>Heart of Texas Barbecue</t>
+  </si>
+  <si>
+    <t>Legends</t>
+  </si>
+  <si>
+    <t>Fieldhouse</t>
+  </si>
+  <si>
+    <t>Harpers</t>
+  </si>
+  <si>
+    <t>Los Tres Amigos</t>
+  </si>
+  <si>
+    <t>Beggar's Banquet</t>
+  </si>
+  <si>
+    <t>Capital Prime Steak</t>
+  </si>
+  <si>
+    <t>McDonalds</t>
+  </si>
+  <si>
+    <t>NCG Movies - Lego Batman</t>
+  </si>
+  <si>
+    <t>HEB - Cosemetics</t>
+  </si>
+  <si>
+    <t>CVS - Pharmacy</t>
+  </si>
+  <si>
+    <t>Venmo - Ryan/Dillon</t>
+  </si>
+  <si>
+    <t>Draught House</t>
+  </si>
+  <si>
+    <t>Taco Joint</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Russells Bistro</t>
+  </si>
+  <si>
+    <t>Ty - WakeSurf</t>
   </si>
 </sst>
 </file>
@@ -882,7 +1110,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1018,8 +1246,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1040,6 +1272,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1326,7 +1560,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1338,6 +1572,9 @@
     <col min="14" max="14" width="12.33203125" style="65" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" style="86" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" customWidth="1"/>
+    <col min="19" max="19" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -1346,25 +1583,25 @@
       </c>
       <c r="B1" s="100">
         <f>N9</f>
-        <v>0</v>
+        <v>21778.190000000002</v>
       </c>
       <c r="C1" s="100"/>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="121"/>
+      <c r="F1" s="125"/>
       <c r="G1" s="100">
         <f>N22</f>
-        <v>0</v>
+        <v>14342.7124</v>
       </c>
       <c r="H1" s="100"/>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="121"/>
+      <c r="K1" s="125"/>
       <c r="L1" s="108">
         <f>N60-B2</f>
-        <v>-901.51750000000175</v>
+        <v>8179.7298999999985</v>
       </c>
       <c r="M1" s="101"/>
     </row>
@@ -1438,11 +1675,11 @@
       </c>
       <c r="B7" s="9">
         <f>SUM(Jan!C6:D6)</f>
-        <v>0</v>
+        <v>5407.26</v>
       </c>
       <c r="C7" s="9">
         <f>SUM(Feb!C6:D6)</f>
-        <v>0</v>
+        <v>5407.26</v>
       </c>
       <c r="D7" s="9">
         <f>SUM(Mar!C6:D6)</f>
@@ -1486,11 +1723,11 @@
       </c>
       <c r="N7" s="80">
         <f>SUM(B7:M7)</f>
-        <v>0</v>
+        <v>10814.52</v>
       </c>
       <c r="O7" s="80">
-        <f>AVERAGE(B7:L7)</f>
-        <v>0</v>
+        <f>AVERAGEIF(B7:M7,"&lt;&gt;0")</f>
+        <v>5407.26</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1503,7 +1740,7 @@
       </c>
       <c r="C8" s="61">
         <f>SUM(Feb!C7:D7)</f>
-        <v>0</v>
+        <v>10963.67</v>
       </c>
       <c r="D8" s="61">
         <f>SUM(Mar!C7:D7)</f>
@@ -1547,11 +1784,11 @@
       </c>
       <c r="N8" s="82">
         <f t="shared" ref="N8:N58" si="0">SUM(B8:M8)</f>
-        <v>0</v>
+        <v>10963.67</v>
       </c>
       <c r="O8" s="80">
-        <f t="shared" ref="O8:O60" si="1">AVERAGE(B8:L8)</f>
-        <v>0</v>
+        <f t="shared" ref="O8:O60" si="1">AVERAGEIF(B8:M8,"&lt;&gt;0")</f>
+        <v>10963.67</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1560,11 +1797,11 @@
       </c>
       <c r="B9" s="9">
         <f>SUM(B7:B8)</f>
-        <v>0</v>
+        <v>5407.26</v>
       </c>
       <c r="C9" s="9">
         <f>SUM(C7:C8)</f>
-        <v>0</v>
+        <v>16370.93</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" ref="D9:M9" si="2">SUM(D7:D8)</f>
@@ -1608,11 +1845,11 @@
       </c>
       <c r="N9" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21778.190000000002</v>
       </c>
       <c r="O9" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10889.095000000001</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1656,11 +1893,11 @@
       </c>
       <c r="B12" s="67">
         <f>SUM(Jan!C12:D12)</f>
-        <v>0</v>
+        <v>811.09</v>
       </c>
       <c r="C12" s="67">
         <f>SUM(Feb!C12:D12)</f>
-        <v>0</v>
+        <v>3552.01</v>
       </c>
       <c r="D12" s="67">
         <f>SUM(Mar!C12:D12)</f>
@@ -1704,11 +1941,11 @@
       </c>
       <c r="N12" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4363.1000000000004</v>
       </c>
       <c r="O12" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2181.5500000000002</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="68" customFormat="1" x14ac:dyDescent="0.2">
@@ -1717,11 +1954,11 @@
       </c>
       <c r="B13" s="67">
         <f>SUM(Jan!C13:D13)</f>
-        <v>0</v>
+        <v>335.44</v>
       </c>
       <c r="C13" s="67">
         <f>SUM(Feb!C13:D13)</f>
-        <v>0</v>
+        <v>1015.1800000000001</v>
       </c>
       <c r="D13" s="67">
         <f>SUM(Mar!C13:D13)</f>
@@ -1765,11 +2002,11 @@
       </c>
       <c r="N13" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1350.6200000000001</v>
       </c>
       <c r="O13" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>675.31000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="68" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1778,11 +2015,11 @@
       </c>
       <c r="B14" s="84">
         <f>SUM(Jan!C14:D14)</f>
-        <v>0</v>
+        <v>78.45</v>
       </c>
       <c r="C14" s="84">
         <f>SUM(Feb!C14:D14)</f>
-        <v>0</v>
+        <v>237.42000000000002</v>
       </c>
       <c r="D14" s="84">
         <f>SUM(Mar!C14:D14)</f>
@@ -1826,11 +2063,11 @@
       </c>
       <c r="N14" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>315.87</v>
       </c>
       <c r="O14" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>157.935</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1839,11 +2076,11 @@
       </c>
       <c r="B15" s="67">
         <f>SUM(B12:B14)</f>
-        <v>0</v>
+        <v>1224.98</v>
       </c>
       <c r="C15" s="67">
         <f t="shared" ref="C15:M15" si="3">SUM(C12:C14)</f>
-        <v>0</v>
+        <v>4804.6100000000006</v>
       </c>
       <c r="D15" s="67">
         <f t="shared" si="3"/>
@@ -1887,11 +2124,11 @@
       </c>
       <c r="N15" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6029.59</v>
       </c>
       <c r="O15" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3014.7950000000001</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1936,11 +2173,11 @@
       </c>
       <c r="B18" s="9">
         <f>SUM(Jan!C21:D21)</f>
-        <v>0</v>
+        <v>432.58080000000001</v>
       </c>
       <c r="C18" s="9">
         <f>SUM(Feb!C21:D21)</f>
-        <v>0</v>
+        <v>540.726</v>
       </c>
       <c r="D18" s="9">
         <f>SUM(Mar!C21:D21)</f>
@@ -1984,11 +2221,11 @@
       </c>
       <c r="N18" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>973.30680000000007</v>
       </c>
       <c r="O18" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>486.65340000000003</v>
       </c>
     </row>
     <row r="19" spans="1:15 16384:16384" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1997,11 +2234,11 @@
       </c>
       <c r="B19" s="61">
         <f>SUM(Jan!C22:D22)</f>
-        <v>0</v>
+        <v>216.29040000000001</v>
       </c>
       <c r="C19" s="61">
         <f>SUM(Feb!C22:D22)</f>
-        <v>0</v>
+        <v>216.29040000000001</v>
       </c>
       <c r="D19" s="61">
         <f>SUM(Mar!C22:D22)</f>
@@ -2045,11 +2282,11 @@
       </c>
       <c r="N19" s="82">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>432.58080000000001</v>
       </c>
       <c r="O19" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>216.29040000000001</v>
       </c>
     </row>
     <row r="20" spans="1:15 16384:16384" x14ac:dyDescent="0.2">
@@ -2058,11 +2295,11 @@
       </c>
       <c r="B20" s="9">
         <f>SUM(B18:B19)</f>
-        <v>0</v>
+        <v>648.87120000000004</v>
       </c>
       <c r="C20" s="9">
         <f t="shared" ref="C20:M20" si="4">SUM(C18:C19)</f>
-        <v>0</v>
+        <v>757.01639999999998</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="4"/>
@@ -2106,11 +2343,11 @@
       </c>
       <c r="N20" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1405.8876</v>
       </c>
       <c r="O20" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>702.94380000000001</v>
       </c>
     </row>
     <row r="21" spans="1:15 16384:16384" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2135,11 +2372,11 @@
       </c>
       <c r="B22" s="72">
         <f>Jan!D29</f>
-        <v>0</v>
+        <v>3533.4088000000002</v>
       </c>
       <c r="C22" s="72">
         <f t="shared" ref="C22:M22" si="5">C9-C15-C20</f>
-        <v>0</v>
+        <v>10809.303599999999</v>
       </c>
       <c r="D22" s="72">
         <f>D9-D15-D20</f>
@@ -2183,11 +2420,11 @@
       </c>
       <c r="N22" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14342.7124</v>
       </c>
       <c r="O22" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7171.3562000000002</v>
       </c>
     </row>
     <row r="23" spans="1:15 16384:16384" x14ac:dyDescent="0.2">
@@ -2213,11 +2450,11 @@
       </c>
       <c r="B24" s="78">
         <f>Jan!G4</f>
-        <v>80</v>
+        <v>505</v>
       </c>
       <c r="C24" s="78">
         <f>Feb!G4</f>
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="D24" s="78">
         <f>Mar!G4</f>
@@ -2261,11 +2498,11 @@
       </c>
       <c r="N24" s="80">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>504.98</v>
       </c>
       <c r="O24" s="80">
         <f t="shared" si="1"/>
-        <v>7.2727272727272725</v>
+        <v>252.49</v>
       </c>
       <c r="XFD24" s="9"/>
     </row>
@@ -2290,7 +2527,7 @@
       </c>
       <c r="C27" s="76">
         <f>Feb!G8</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="D27" s="76">
         <f>Mar!G8</f>
@@ -2334,11 +2571,11 @@
       </c>
       <c r="N27" s="80">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="O27" s="80">
         <f t="shared" si="1"/>
-        <v>63.636363636363633</v>
+        <v>700</v>
       </c>
     </row>
     <row r="28" spans="1:15 16384:16384" x14ac:dyDescent="0.2">
@@ -2362,7 +2599,7 @@
       </c>
       <c r="C30" s="2">
         <f>Feb!G11</f>
-        <v>0</v>
+        <v>18.752500000000001</v>
       </c>
       <c r="D30" s="2">
         <f>Mar!G11</f>
@@ -2406,11 +2643,11 @@
       </c>
       <c r="N30" s="80">
         <f t="shared" si="0"/>
-        <v>15.5</v>
+        <v>34.252499999999998</v>
       </c>
       <c r="O30" s="80">
         <f t="shared" si="1"/>
-        <v>1.4090909090909092</v>
+        <v>17.126249999999999</v>
       </c>
     </row>
     <row r="31" spans="1:15 16384:16384" x14ac:dyDescent="0.2">
@@ -2423,7 +2660,7 @@
       </c>
       <c r="C31" s="2">
         <f>Feb!G12</f>
-        <v>0</v>
+        <v>28.022500000000001</v>
       </c>
       <c r="D31" s="2">
         <f>Mar!G12</f>
@@ -2467,11 +2704,11 @@
       </c>
       <c r="N31" s="80">
         <f t="shared" si="0"/>
-        <v>21.657499999999999</v>
+        <v>49.68</v>
       </c>
       <c r="O31" s="80">
         <f t="shared" si="1"/>
-        <v>1.9688636363636363</v>
+        <v>24.84</v>
       </c>
     </row>
     <row r="32" spans="1:15 16384:16384" x14ac:dyDescent="0.2">
@@ -2480,11 +2717,11 @@
       </c>
       <c r="B32" s="2">
         <f>Jan!G13</f>
-        <v>16.53</v>
+        <v>32.39</v>
       </c>
       <c r="C32" s="2">
         <f>Feb!G13</f>
-        <v>0</v>
+        <v>30.830000000000002</v>
       </c>
       <c r="D32" s="2">
         <f>Mar!G13</f>
@@ -2528,14 +2765,14 @@
       </c>
       <c r="N32" s="80">
         <f t="shared" si="0"/>
-        <v>16.53</v>
+        <v>63.22</v>
       </c>
       <c r="O32" s="80">
         <f t="shared" si="1"/>
-        <v>1.5027272727272729</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>31.61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
         <v>40</v>
       </c>
@@ -2591,22 +2828,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O33" s="80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="80"/>
+    </row>
+    <row r="34" spans="1:19" s="68" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="75" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="76">
         <f>SUM(B30:B33)</f>
-        <v>53.6875</v>
+        <v>69.547499999999999</v>
       </c>
       <c r="C34" s="76">
         <f t="shared" ref="C34:M34" si="6">SUM(C30:C33)</f>
-        <v>0</v>
+        <v>77.605000000000004</v>
       </c>
       <c r="D34" s="76">
         <f t="shared" si="6"/>
@@ -2650,35 +2884,35 @@
       </c>
       <c r="N34" s="80">
         <f t="shared" si="0"/>
-        <v>53.6875</v>
+        <v>147.1525</v>
       </c>
       <c r="O34" s="80">
         <f t="shared" si="1"/>
-        <v>4.8806818181818183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+        <v>73.576250000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N35" s="80"/>
       <c r="O35" s="80"/>
     </row>
-    <row r="36" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
         <v>48</v>
       </c>
       <c r="N36" s="80"/>
       <c r="O36" s="80"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
         <v>85</v>
       </c>
       <c r="B37" s="9">
         <f>Jan!G18</f>
-        <v>0</v>
+        <v>497.3</v>
       </c>
       <c r="C37" s="9">
         <f>Feb!G18</f>
-        <v>0</v>
+        <v>497.3</v>
       </c>
       <c r="D37" s="9">
         <f>Mar!G18</f>
@@ -2722,24 +2956,24 @@
       </c>
       <c r="N37" s="80">
         <f>SUM(B37:M37)</f>
-        <v>0</v>
+        <v>994.6</v>
       </c>
       <c r="O37" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+        <v>497.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="9">
         <f>Jan!G19</f>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="C38" s="9">
         <f>Feb!G19</f>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="D38" s="9">
         <f>Mar!G19</f>
@@ -2783,24 +3017,24 @@
       </c>
       <c r="N38" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="O38" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="9">
         <f>Jan!G20</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C39" s="9">
         <f>Feb!G20</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D39" s="9">
         <f>Mar!G20</f>
@@ -2844,24 +3078,24 @@
       </c>
       <c r="N39" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="O39" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B40" s="9">
         <f>Jan!G21</f>
-        <v>1.2</v>
+        <v>80</v>
       </c>
       <c r="C40" s="9">
         <f>Feb!G21</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="D40" s="9">
         <f>Mar!G21</f>
@@ -2905,24 +3139,24 @@
       </c>
       <c r="N40" s="80">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>240</v>
       </c>
       <c r="O40" s="80">
         <f t="shared" si="1"/>
-        <v>0.10909090909090909</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="9">
         <f>Jan!G22</f>
-        <v>0</v>
+        <v>52.24</v>
       </c>
       <c r="C41" s="9">
         <f>Feb!G22</f>
-        <v>0</v>
+        <v>43.29</v>
       </c>
       <c r="D41" s="9">
         <f>Mar!G22</f>
@@ -2966,24 +3200,24 @@
       </c>
       <c r="N41" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95.53</v>
       </c>
       <c r="O41" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+        <v>47.765000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="96">
         <f>Jan!G23</f>
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="C42" s="96">
         <f>Feb!G23</f>
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="D42" s="96">
         <f>Mar!G23</f>
@@ -3027,24 +3261,24 @@
       </c>
       <c r="N42" s="80">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="O42" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="29" t="s">
         <v>79</v>
       </c>
       <c r="B43" s="9">
         <f>Jan!G24</f>
-        <v>0</v>
+        <v>10.81</v>
       </c>
       <c r="C43" s="9">
         <f>Feb!G24</f>
-        <v>0</v>
+        <v>10.81</v>
       </c>
       <c r="D43" s="9">
         <f>Mar!G24</f>
@@ -3088,24 +3322,24 @@
       </c>
       <c r="N43" s="80">
         <f>SUM(B43:M43)</f>
-        <v>0</v>
+        <v>21.62</v>
       </c>
       <c r="O43" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" s="68" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="68" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="73" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="74">
         <f>SUM(B37:B43)</f>
-        <v>1.2</v>
+        <v>1055.75</v>
       </c>
       <c r="C44" s="74">
         <f t="shared" ref="C44:M44" si="7">SUM(C37:C43)</f>
-        <v>0</v>
+        <v>1126.8</v>
       </c>
       <c r="D44" s="74">
         <f>SUM(D37:D43)</f>
@@ -3149,24 +3383,24 @@
       </c>
       <c r="N44" s="82">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>2182.5500000000002</v>
       </c>
       <c r="O44" s="80">
         <f t="shared" si="1"/>
-        <v>0.10909090909090909</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="68" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1091.2750000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" s="68" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="71" t="s">
         <v>49</v>
       </c>
       <c r="B45" s="67">
         <f t="shared" ref="B45:M45" si="8">SUM(B27,B34,B44)</f>
-        <v>754.88750000000005</v>
+        <v>1825.2975000000001</v>
       </c>
       <c r="C45" s="67">
         <f>SUM(C27,C34,C44)</f>
-        <v>0</v>
+        <v>1904.405</v>
       </c>
       <c r="D45" s="67">
         <f t="shared" si="8"/>
@@ -3210,35 +3444,44 @@
       </c>
       <c r="N45" s="80">
         <f t="shared" si="0"/>
-        <v>754.88750000000005</v>
+        <v>3729.7025000000003</v>
       </c>
       <c r="O45" s="80">
         <f t="shared" si="1"/>
-        <v>68.626136363636363</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1864.8512500000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N46" s="80"/>
       <c r="O46" s="80"/>
     </row>
-    <row r="47" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>52</v>
       </c>
       <c r="N47" s="80"/>
       <c r="O47" s="80"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q47" t="s">
+        <v>160</v>
+      </c>
+      <c r="R47" t="s">
+        <v>161</v>
+      </c>
+      <c r="S47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="9">
         <f>Jan!J11</f>
-        <v>36.159999999999997</v>
+        <v>132.76</v>
       </c>
       <c r="C48" s="9">
         <f>Feb!J11</f>
-        <v>0</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="D48" s="9">
         <f>Mar!J11</f>
@@ -3282,25 +3525,34 @@
       </c>
       <c r="N48" s="80">
         <f t="shared" si="0"/>
-        <v>36.159999999999997</v>
+        <v>201.66</v>
       </c>
       <c r="O48" s="80">
         <f t="shared" si="1"/>
-        <v>3.2872727272727271</v>
+        <v>100.83</v>
       </c>
       <c r="P48" s="9"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="9">
+        <v>120.63333333333333</v>
+      </c>
+      <c r="R48" s="2">
+        <v>150</v>
+      </c>
+      <c r="S48" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="9">
         <f>Jan!J12</f>
-        <v>15</v>
+        <v>123.29999999999998</v>
       </c>
       <c r="C49" s="9">
         <f>Feb!J12</f>
-        <v>0</v>
+        <v>111.86</v>
       </c>
       <c r="D49" s="9">
         <f>Mar!J12</f>
@@ -3344,25 +3596,34 @@
       </c>
       <c r="N49" s="80">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>235.15999999999997</v>
       </c>
       <c r="O49" s="80">
         <f t="shared" si="1"/>
-        <v>1.3636363636363635</v>
+        <v>117.57999999999998</v>
       </c>
       <c r="P49" s="9"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="9">
+        <v>121.87833333333333</v>
+      </c>
+      <c r="R49" s="2">
+        <v>100</v>
+      </c>
+      <c r="S49" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="9">
         <f>Jan!J13</f>
-        <v>59.96</v>
+        <v>309.15000000000003</v>
       </c>
       <c r="C50" s="9">
         <f>Feb!J13</f>
-        <v>0</v>
+        <v>263.70000000000005</v>
       </c>
       <c r="D50" s="9">
         <f>Mar!J13</f>
@@ -3406,25 +3667,34 @@
       </c>
       <c r="N50" s="80">
         <f t="shared" si="0"/>
-        <v>59.96</v>
+        <v>572.85000000000014</v>
       </c>
       <c r="O50" s="80">
         <f t="shared" si="1"/>
-        <v>5.4509090909090911</v>
+        <v>286.42500000000007</v>
       </c>
       <c r="P50" s="9"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="9">
+        <v>231.54666666666665</v>
+      </c>
+      <c r="R50" s="2">
+        <v>200</v>
+      </c>
+      <c r="S50" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="9">
         <f>Jan!J14</f>
-        <v>9.2799999999999994</v>
+        <v>121.82</v>
       </c>
       <c r="C51" s="9">
         <f>Feb!J14</f>
-        <v>0</v>
+        <v>184.41</v>
       </c>
       <c r="D51" s="9">
         <f>Mar!J14</f>
@@ -3468,25 +3738,34 @@
       </c>
       <c r="N51" s="80">
         <f t="shared" si="0"/>
-        <v>9.2799999999999994</v>
+        <v>306.23</v>
       </c>
       <c r="O51" s="80">
         <f t="shared" si="1"/>
-        <v>0.84363636363636363</v>
+        <v>153.11500000000001</v>
       </c>
       <c r="P51" s="9"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="9">
+        <v>151.54249999999999</v>
+      </c>
+      <c r="R51" s="2">
+        <v>150</v>
+      </c>
+      <c r="S51" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="9">
         <f>Jan!J15</f>
-        <v>14.04</v>
+        <v>84.039999999999992</v>
       </c>
       <c r="C52" s="9">
         <f>Feb!J15</f>
-        <v>0</v>
+        <v>137.32999999999998</v>
       </c>
       <c r="D52" s="9">
         <f>Mar!J15</f>
@@ -3530,25 +3809,34 @@
       </c>
       <c r="N52" s="80">
         <f t="shared" si="0"/>
-        <v>14.04</v>
+        <v>221.36999999999998</v>
       </c>
       <c r="O52" s="80">
         <f t="shared" si="1"/>
-        <v>1.2763636363636364</v>
+        <v>110.68499999999999</v>
       </c>
       <c r="P52" s="9"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="9">
+        <v>108.77749999999999</v>
+      </c>
+      <c r="R52" s="2">
+        <v>100</v>
+      </c>
+      <c r="S52" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="96">
         <f>Jan!J16</f>
-        <v>72.19</v>
+        <v>367.37</v>
       </c>
       <c r="C53" s="96">
         <f>Feb!J16</f>
-        <v>0</v>
+        <v>248.06</v>
       </c>
       <c r="D53" s="96">
         <f>Mar!J16</f>
@@ -3592,25 +3880,34 @@
       </c>
       <c r="N53" s="80">
         <f t="shared" si="0"/>
-        <v>72.19</v>
+        <v>615.43000000000006</v>
       </c>
       <c r="O53" s="80">
         <f t="shared" si="1"/>
-        <v>6.5627272727272725</v>
+        <v>307.71500000000003</v>
       </c>
       <c r="P53" s="9"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="9">
+        <v>447.69333333333338</v>
+      </c>
+      <c r="R53" s="2">
+        <v>300</v>
+      </c>
+      <c r="S53" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="66" t="s">
         <v>87</v>
       </c>
       <c r="B54" s="9">
         <f>Jan!J17</f>
-        <v>20</v>
+        <v>9.5</v>
       </c>
       <c r="C54" s="9">
         <f>Feb!J17</f>
-        <v>0</v>
+        <v>11.58</v>
       </c>
       <c r="D54" s="9">
         <f>Mar!J17</f>
@@ -3654,25 +3951,34 @@
       </c>
       <c r="N54" s="80">
         <f>SUM(B54:M54)</f>
-        <v>20</v>
+        <v>21.08</v>
       </c>
       <c r="O54" s="80">
         <f t="shared" si="1"/>
-        <v>1.8181818181818181</v>
+        <v>10.54</v>
       </c>
       <c r="P54" s="9"/>
-    </row>
-    <row r="55" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q54" s="9">
+        <v>8.3541666666666661</v>
+      </c>
+      <c r="R54" s="2">
+        <v>5</v>
+      </c>
+      <c r="S54" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="98" t="s">
         <v>86</v>
       </c>
       <c r="B55" s="61">
         <f>Jan!J18</f>
-        <v>0</v>
+        <v>484.28</v>
       </c>
       <c r="C55" s="61">
         <f>Feb!J18</f>
-        <v>0</v>
+        <v>280.2</v>
       </c>
       <c r="D55" s="61">
         <f>Mar!J18</f>
@@ -3716,25 +4022,34 @@
       </c>
       <c r="N55" s="82">
         <f>SUM(B55:M55)</f>
-        <v>0</v>
+        <v>764.48</v>
       </c>
       <c r="O55" s="80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>382.24</v>
       </c>
       <c r="P55" s="9"/>
-    </row>
-    <row r="56" spans="1:16" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q55" s="9">
+        <v>210.81833333333336</v>
+      </c>
+      <c r="R55" s="2">
+        <v>200</v>
+      </c>
+      <c r="S55" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" s="68" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="73" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="67">
         <f>SUM(B48:B55)</f>
-        <v>226.63</v>
+        <v>1632.22</v>
       </c>
       <c r="C56" s="67">
         <f>SUM(C48:C55)</f>
-        <v>0</v>
+        <v>1306.04</v>
       </c>
       <c r="D56" s="67">
         <f t="shared" ref="D56:M56" si="9">SUM(D48:D55)</f>
@@ -3778,14 +4093,25 @@
       </c>
       <c r="N56" s="80">
         <f t="shared" si="0"/>
-        <v>226.63</v>
+        <v>2938.26</v>
       </c>
       <c r="O56" s="80">
         <f t="shared" si="1"/>
-        <v>20.602727272727272</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1469.13</v>
+      </c>
+      <c r="Q56" s="67">
+        <v>1401.2441666666671</v>
+      </c>
+      <c r="R56" s="76">
+        <f>SUM(R48:R55)</f>
+        <v>1205</v>
+      </c>
+      <c r="S56" s="76">
+        <f>SUM(S48:S55)</f>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -3802,17 +4128,17 @@
       <c r="N57" s="82"/>
       <c r="O57" s="80"/>
     </row>
-    <row r="58" spans="1:16" s="69" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" s="69" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="77">
         <f>SUM(B45,B56)</f>
-        <v>981.51750000000004</v>
+        <v>3457.5174999999999</v>
       </c>
       <c r="C58" s="77">
         <f t="shared" ref="C58:M58" si="10">SUM(C45,C56)</f>
-        <v>0</v>
+        <v>3210.4449999999997</v>
       </c>
       <c r="D58" s="77">
         <f t="shared" si="10"/>
@@ -3856,76 +4182,77 @@
       </c>
       <c r="N58" s="85">
         <f t="shared" si="0"/>
-        <v>981.51750000000004</v>
+        <v>6667.9624999999996</v>
       </c>
       <c r="O58" s="80">
         <f t="shared" si="1"/>
-        <v>89.228863636363641</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+        <v>3333.9812499999998</v>
+      </c>
+      <c r="P58" s="60"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N59" s="80"/>
       <c r="O59" s="80"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="9">
         <f>B22-B58+B24+B2</f>
-        <v>17994.342499999999</v>
+        <v>19476.7513</v>
       </c>
       <c r="C60" s="9">
         <f t="shared" ref="C60:M60" si="11">C22+C24-C58+B60</f>
-        <v>17994.342499999999</v>
+        <v>27075.589899999999</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" si="11"/>
-        <v>17994.342499999999</v>
+        <v>27075.589899999999</v>
       </c>
       <c r="E60" s="9">
         <f t="shared" si="11"/>
-        <v>17994.342499999999</v>
+        <v>27075.589899999999</v>
       </c>
       <c r="F60" s="9">
         <f t="shared" si="11"/>
-        <v>17994.342499999999</v>
+        <v>27075.589899999999</v>
       </c>
       <c r="G60" s="9">
         <f t="shared" si="11"/>
-        <v>17994.342499999999</v>
+        <v>27075.589899999999</v>
       </c>
       <c r="H60" s="9">
         <f t="shared" si="11"/>
-        <v>17994.342499999999</v>
+        <v>27075.589899999999</v>
       </c>
       <c r="I60" s="9">
         <f t="shared" si="11"/>
-        <v>17994.342499999999</v>
+        <v>27075.589899999999</v>
       </c>
       <c r="J60" s="9">
         <f t="shared" si="11"/>
-        <v>17994.342499999999</v>
+        <v>27075.589899999999</v>
       </c>
       <c r="K60" s="9">
         <f t="shared" si="11"/>
-        <v>17994.342499999999</v>
+        <v>27075.589899999999</v>
       </c>
       <c r="L60" s="9">
         <f t="shared" si="11"/>
-        <v>17994.342499999999</v>
+        <v>27075.589899999999</v>
       </c>
       <c r="M60" s="9">
         <f t="shared" si="11"/>
-        <v>17994.342499999999</v>
+        <v>27075.589899999999</v>
       </c>
       <c r="N60" s="81">
         <f>M60</f>
-        <v>17994.342499999999</v>
+        <v>27075.589899999999</v>
       </c>
       <c r="O60" s="80">
         <f t="shared" si="1"/>
-        <v>17994.342499999999</v>
+        <v>26442.353350000001</v>
       </c>
     </row>
   </sheetData>
@@ -3945,7 +4272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3997,7 +4326,7 @@
       </c>
       <c r="G2" s="2">
         <f>Jul!J28</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -4031,56 +4360,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="122" t="s">
+      <c r="L4" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="122"/>
+      <c r="M4" s="126"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="122" t="s">
+      <c r="P4" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="122"/>
+      <c r="Q4" s="126"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="122" t="s">
+      <c r="T4" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="122"/>
+      <c r="U4" s="126"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="122" t="s">
+      <c r="X4" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="122"/>
+      <c r="Y4" s="126"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="122" t="s">
+      <c r="AB4" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="122"/>
+      <c r="AC4" s="126"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="122" t="s">
+      <c r="AF4" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="122"/>
+      <c r="AG4" s="126"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
+      <c r="AJ4" s="126"/>
+      <c r="AK4" s="126"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4098,7 +4427,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -4113,10 +4442,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L6" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="125"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -4160,33 +4489,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="P7" s="127" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="127"/>
-      <c r="T7" s="127" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="127"/>
-      <c r="X7" s="127" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="127"/>
-      <c r="AB7" s="127" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="127"/>
-      <c r="AF7" s="127" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="127"/>
+      <c r="AG7" s="131"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4210,57 +4539,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="128" t="s">
+      <c r="L8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="128"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="128" t="s">
+      <c r="P8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="128"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="128" t="s">
+      <c r="T8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="128"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="128" t="s">
+      <c r="X8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="128"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="128" t="s">
+      <c r="AB8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="128"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="128" t="s">
+      <c r="AF8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="128"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="124"/>
-      <c r="AK8" s="124"/>
+      <c r="AJ8" s="128"/>
+      <c r="AK8" s="128"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -4412,11 +4741,11 @@
         <v>21</v>
       </c>
       <c r="C13" s="30">
-        <f>0.062*C9</f>
+        <f>0.062*C8</f>
         <v>0</v>
       </c>
       <c r="D13" s="30">
-        <f>0.062*D9</f>
+        <f>0.062*D8</f>
         <v>0</v>
       </c>
       <c r="F13" s="51" t="s">
@@ -4443,11 +4772,11 @@
         <v>22</v>
       </c>
       <c r="C14" s="30">
-        <f>0.0145*C10</f>
+        <f>0.0145*C8</f>
         <v>0</v>
       </c>
       <c r="D14" s="30">
-        <f>0.0145*D10</f>
+        <f>0.0145*D8</f>
         <v>0</v>
       </c>
       <c r="F14" s="51" t="s">
@@ -4599,14 +4928,14 @@
     </row>
     <row r="21" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C21" s="22">
-        <f>0.08*C6</f>
+        <f>0.1*C6</f>
         <v>0</v>
       </c>
       <c r="D21" s="22">
-        <f>0.08*D6</f>
+        <f>0.1*D6</f>
         <v>0</v>
       </c>
       <c r="F21" s="21" t="s">
@@ -4745,7 +5074,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4804,12 +5133,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="AJ8:AK8"/>
@@ -4826,6 +5149,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4835,7 +5164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4887,7 +5218,7 @@
       </c>
       <c r="G2" s="2">
         <f>Aug!J28</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -4921,56 +5252,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="122" t="s">
+      <c r="L4" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="122"/>
+      <c r="M4" s="126"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="122" t="s">
+      <c r="P4" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="122"/>
+      <c r="Q4" s="126"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="122" t="s">
+      <c r="T4" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="122"/>
+      <c r="U4" s="126"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="122" t="s">
+      <c r="X4" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="122"/>
+      <c r="Y4" s="126"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="122" t="s">
+      <c r="AB4" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="122"/>
+      <c r="AC4" s="126"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="122" t="s">
+      <c r="AF4" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="122"/>
+      <c r="AG4" s="126"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
+      <c r="AJ4" s="126"/>
+      <c r="AK4" s="126"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4988,7 +5319,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -5003,10 +5334,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L6" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="125"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -5050,33 +5381,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="P7" s="127" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="127"/>
-      <c r="T7" s="127" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="127"/>
-      <c r="X7" s="127" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="127"/>
-      <c r="AB7" s="127" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="127"/>
-      <c r="AF7" s="127" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="127"/>
+      <c r="AG7" s="131"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5100,57 +5431,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="128" t="s">
+      <c r="L8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="128"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="128" t="s">
+      <c r="P8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="128"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="128" t="s">
+      <c r="T8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="128"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="128" t="s">
+      <c r="X8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="128"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="128" t="s">
+      <c r="AB8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="128"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="128" t="s">
+      <c r="AF8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="128"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="124"/>
-      <c r="AK8" s="124"/>
+      <c r="AJ8" s="128"/>
+      <c r="AK8" s="128"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -5302,11 +5633,11 @@
         <v>21</v>
       </c>
       <c r="C13" s="30">
-        <f>0.062*C9</f>
+        <f>0.062*C8</f>
         <v>0</v>
       </c>
       <c r="D13" s="30">
-        <f>0.062*D9</f>
+        <f>0.062*D8</f>
         <v>0</v>
       </c>
       <c r="F13" s="51" t="s">
@@ -5333,11 +5664,11 @@
         <v>22</v>
       </c>
       <c r="C14" s="30">
-        <f>0.0145*C10</f>
+        <f>0.0145*C8</f>
         <v>0</v>
       </c>
       <c r="D14" s="30">
-        <f>0.0145*D10</f>
+        <f>0.0145*D8</f>
         <v>0</v>
       </c>
       <c r="F14" s="51" t="s">
@@ -5489,14 +5820,14 @@
     </row>
     <row r="21" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C21" s="22">
-        <f>0.08*C6</f>
+        <f>0.1*C6</f>
         <v>0</v>
       </c>
       <c r="D21" s="22">
-        <f>0.08*D6</f>
+        <f>0.1*D6</f>
         <v>0</v>
       </c>
       <c r="F21" s="21" t="s">
@@ -5635,7 +5966,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5694,12 +6025,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="AJ8:AK8"/>
@@ -5716,6 +6041,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5725,7 +6056,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5777,7 +6110,7 @@
       </c>
       <c r="G2" s="2">
         <f>Sep!J28</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -5811,56 +6144,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="122" t="s">
+      <c r="L4" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="122"/>
+      <c r="M4" s="126"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="122" t="s">
+      <c r="P4" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="122"/>
+      <c r="Q4" s="126"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="122" t="s">
+      <c r="T4" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="122"/>
+      <c r="U4" s="126"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="122" t="s">
+      <c r="X4" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="122"/>
+      <c r="Y4" s="126"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="122" t="s">
+      <c r="AB4" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="122"/>
+      <c r="AC4" s="126"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="122" t="s">
+      <c r="AF4" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="122"/>
+      <c r="AG4" s="126"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
+      <c r="AJ4" s="126"/>
+      <c r="AK4" s="126"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5878,7 +6211,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -5893,10 +6226,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L6" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="125"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -5940,33 +6273,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="P7" s="127" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="127"/>
-      <c r="T7" s="127" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="127"/>
-      <c r="X7" s="127" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="127"/>
-      <c r="AB7" s="127" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="127"/>
-      <c r="AF7" s="127" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="127"/>
+      <c r="AG7" s="131"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5990,57 +6323,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="128" t="s">
+      <c r="L8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="128"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="128" t="s">
+      <c r="P8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="128"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="128" t="s">
+      <c r="T8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="128"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="128" t="s">
+      <c r="X8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="128"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="128" t="s">
+      <c r="AB8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="128"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="128" t="s">
+      <c r="AF8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="128"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="124"/>
-      <c r="AK8" s="124"/>
+      <c r="AJ8" s="128"/>
+      <c r="AK8" s="128"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -6192,11 +6525,11 @@
         <v>21</v>
       </c>
       <c r="C13" s="30">
-        <f>0.062*C9</f>
+        <f>0.062*C8</f>
         <v>0</v>
       </c>
       <c r="D13" s="30">
-        <f>0.062*D9</f>
+        <f>0.062*D8</f>
         <v>0</v>
       </c>
       <c r="F13" s="51" t="s">
@@ -6223,11 +6556,11 @@
         <v>22</v>
       </c>
       <c r="C14" s="30">
-        <f>0.0145*C10</f>
+        <f>0.0145*C8</f>
         <v>0</v>
       </c>
       <c r="D14" s="30">
-        <f>0.0145*D10</f>
+        <f>0.0145*D8</f>
         <v>0</v>
       </c>
       <c r="F14" s="51" t="s">
@@ -6379,14 +6712,14 @@
     </row>
     <row r="21" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C21" s="22">
-        <f>0.08*C6</f>
+        <f>0.1*C6</f>
         <v>0</v>
       </c>
       <c r="D21" s="22">
-        <f>0.08*D6</f>
+        <f>0.1*D6</f>
         <v>0</v>
       </c>
       <c r="F21" s="21" t="s">
@@ -6525,7 +6858,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6584,12 +6917,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="AJ8:AK8"/>
@@ -6606,6 +6933,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6615,7 +6948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6667,7 +7002,7 @@
       </c>
       <c r="G2" s="2">
         <f>Oct!J28</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -6701,56 +7036,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="122" t="s">
+      <c r="L4" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="122"/>
+      <c r="M4" s="126"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="122" t="s">
+      <c r="P4" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="122"/>
+      <c r="Q4" s="126"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="122" t="s">
+      <c r="T4" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="122"/>
+      <c r="U4" s="126"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="122" t="s">
+      <c r="X4" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="122"/>
+      <c r="Y4" s="126"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="122" t="s">
+      <c r="AB4" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="122"/>
+      <c r="AC4" s="126"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="122" t="s">
+      <c r="AF4" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="122"/>
+      <c r="AG4" s="126"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
+      <c r="AJ4" s="126"/>
+      <c r="AK4" s="126"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6768,7 +7103,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -6783,10 +7118,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L6" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="125"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -6830,33 +7165,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="P7" s="127" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="127"/>
-      <c r="T7" s="127" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="127"/>
-      <c r="X7" s="127" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="127"/>
-      <c r="AB7" s="127" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="127"/>
-      <c r="AF7" s="127" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="127"/>
+      <c r="AG7" s="131"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6880,57 +7215,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="128" t="s">
+      <c r="L8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="128"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="128" t="s">
+      <c r="P8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="128"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="128" t="s">
+      <c r="T8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="128"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="128" t="s">
+      <c r="X8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="128"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="128" t="s">
+      <c r="AB8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="128"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="128" t="s">
+      <c r="AF8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="128"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="124"/>
-      <c r="AK8" s="124"/>
+      <c r="AJ8" s="128"/>
+      <c r="AK8" s="128"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -7082,11 +7417,11 @@
         <v>21</v>
       </c>
       <c r="C13" s="30">
-        <f>0.062*C9</f>
+        <f>0.062*C8</f>
         <v>0</v>
       </c>
       <c r="D13" s="30">
-        <f>0.062*D9</f>
+        <f>0.062*D8</f>
         <v>0</v>
       </c>
       <c r="F13" s="51" t="s">
@@ -7113,11 +7448,11 @@
         <v>22</v>
       </c>
       <c r="C14" s="30">
-        <f>0.0145*C10</f>
+        <f>0.0145*C8</f>
         <v>0</v>
       </c>
       <c r="D14" s="30">
-        <f>0.0145*D10</f>
+        <f>0.0145*D8</f>
         <v>0</v>
       </c>
       <c r="F14" s="51" t="s">
@@ -7269,14 +7604,14 @@
     </row>
     <row r="21" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C21" s="22">
-        <f>0.08*C6</f>
+        <f>0.1*C6</f>
         <v>0</v>
       </c>
       <c r="D21" s="22">
-        <f>0.08*D6</f>
+        <f>0.1*D6</f>
         <v>0</v>
       </c>
       <c r="F21" s="21" t="s">
@@ -7415,7 +7750,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7474,12 +7809,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="AJ8:AK8"/>
@@ -7496,6 +7825,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7505,7 +7840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7557,7 +7894,7 @@
       </c>
       <c r="G2" s="2">
         <f>Nov!J28</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -7591,56 +7928,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="122" t="s">
+      <c r="L4" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="122"/>
+      <c r="M4" s="126"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="122" t="s">
+      <c r="P4" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="122"/>
+      <c r="Q4" s="126"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="122" t="s">
+      <c r="T4" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="122"/>
+      <c r="U4" s="126"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="122" t="s">
+      <c r="X4" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="122"/>
+      <c r="Y4" s="126"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="122" t="s">
+      <c r="AB4" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="122"/>
+      <c r="AC4" s="126"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="122" t="s">
+      <c r="AF4" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="122"/>
+      <c r="AG4" s="126"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
+      <c r="AJ4" s="126"/>
+      <c r="AK4" s="126"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7658,7 +7995,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -7673,10 +8010,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L6" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="125"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -7720,33 +8057,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="P7" s="127" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="127"/>
-      <c r="T7" s="127" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="127"/>
-      <c r="X7" s="127" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="127"/>
-      <c r="AB7" s="127" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="127"/>
-      <c r="AF7" s="127" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="127"/>
+      <c r="AG7" s="131"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7770,57 +8107,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="128" t="s">
+      <c r="L8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="128"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="128" t="s">
+      <c r="P8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="128"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="128" t="s">
+      <c r="T8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="128"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="128" t="s">
+      <c r="X8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="128"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="128" t="s">
+      <c r="AB8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="128"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="128" t="s">
+      <c r="AF8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="128"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="124"/>
-      <c r="AK8" s="124"/>
+      <c r="AJ8" s="128"/>
+      <c r="AK8" s="128"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -7972,11 +8309,11 @@
         <v>21</v>
       </c>
       <c r="C13" s="30">
-        <f>0.062*C9</f>
+        <f>0.062*C8</f>
         <v>0</v>
       </c>
       <c r="D13" s="30">
-        <f>0.062*D9</f>
+        <f>0.062*D8</f>
         <v>0</v>
       </c>
       <c r="F13" s="51" t="s">
@@ -8003,11 +8340,11 @@
         <v>22</v>
       </c>
       <c r="C14" s="30">
-        <f>0.0145*C10</f>
+        <f>0.0145*C8</f>
         <v>0</v>
       </c>
       <c r="D14" s="30">
-        <f>0.0145*D10</f>
+        <f>0.0145*D8</f>
         <v>0</v>
       </c>
       <c r="F14" s="51" t="s">
@@ -8159,14 +8496,14 @@
     </row>
     <row r="21" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C21" s="22">
-        <f>0.08*C6</f>
+        <f>0.1*C6</f>
         <v>0</v>
       </c>
       <c r="D21" s="22">
-        <f>0.08*D6</f>
+        <f>0.1*D6</f>
         <v>0</v>
       </c>
       <c r="F21" s="21" t="s">
@@ -8305,7 +8642,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -8364,12 +8701,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="AJ8:AK8"/>
@@ -8386,6 +8717,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8396,7 +8733,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8415,8 +8752,8 @@
         <v>83</v>
       </c>
       <c r="B1" s="9">
-        <f>Jan!J30+Feb!J30+Mar!J30+Apr!J30+May!J30+Jun!J30+Jul!J30+Aug!J30+Sep!J30+Oct!J30+Nov!J30+'Monthly Breakdown'!B2-20000</f>
-        <v>-2005.6575000000012</v>
+        <f>Jan!J30+Feb!J30+Mar!J30+Apr!J30+May!J30+Jun!J30+Jul!J30+Aug!J30+Sep!J30+Oct!J30+Nov!J30+'Monthly Breakdown'!B2-25000</f>
+        <v>2075.5899000000027</v>
       </c>
       <c r="G1" s="106" t="s">
         <v>96</v>
@@ -8511,8 +8848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8575,14 +8912,14 @@
       </c>
       <c r="C3" s="9">
         <f>C6*24</f>
-        <v>0</v>
+        <v>64887.12</v>
       </c>
       <c r="F3" s="109" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="4">
         <f>D29</f>
-        <v>0</v>
+        <v>3533.4088000000002</v>
       </c>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.2">
@@ -8590,66 +8927,66 @@
         <v>33</v>
       </c>
       <c r="G4" s="2">
-        <f>80</f>
-        <v>80</v>
+        <f>80-1321+100+519+1020+107</f>
+        <v>505</v>
       </c>
       <c r="I4" t="s">
         <v>95</v>
       </c>
       <c r="J4" s="9">
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
-        <v>743.37000000000012</v>
-      </c>
-      <c r="L4" s="122" t="s">
+        <v>-188.44</v>
+      </c>
+      <c r="L4" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="122"/>
+      <c r="M4" s="126"/>
       <c r="N4" s="9">
         <f>150-N8</f>
-        <v>113.84</v>
-      </c>
-      <c r="P4" s="122" t="s">
+        <v>17.240000000000009</v>
+      </c>
+      <c r="P4" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="122"/>
+      <c r="Q4" s="126"/>
       <c r="R4" s="9">
         <f>100-R8</f>
-        <v>85</v>
-      </c>
-      <c r="T4" s="122" t="s">
+        <v>-23.299999999999983</v>
+      </c>
+      <c r="T4" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="122"/>
+      <c r="U4" s="126"/>
       <c r="V4" s="9">
         <f>200-V8</f>
-        <v>140.04</v>
-      </c>
-      <c r="X4" s="122" t="s">
+        <v>-109.15000000000003</v>
+      </c>
+      <c r="X4" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="122"/>
+      <c r="Y4" s="126"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
-        <v>90.72</v>
-      </c>
-      <c r="AB4" s="122" t="s">
+        <v>-21.819999999999993</v>
+      </c>
+      <c r="AB4" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="122"/>
+      <c r="AC4" s="126"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
-        <v>85.960000000000008</v>
-      </c>
-      <c r="AF4" s="122" t="s">
+        <v>15.960000000000008</v>
+      </c>
+      <c r="AF4" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="122"/>
+      <c r="AG4" s="126"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
-        <v>227.81</v>
-      </c>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
+        <v>-67.37</v>
+      </c>
+      <c r="AJ4" s="126"/>
+      <c r="AK4" s="126"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -8667,7 +9004,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>18975.86</v>
+        <v>22934.268800000002</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -8677,15 +9014,15 @@
         <v>19</v>
       </c>
       <c r="C6" s="90">
-        <v>0</v>
+        <v>2703.63</v>
       </c>
       <c r="D6" s="22">
-        <v>0</v>
-      </c>
-      <c r="L6" s="125" t="s">
+        <v>2703.63</v>
+      </c>
+      <c r="L6" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="125"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -8729,33 +9066,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="P7" s="127" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="127"/>
-      <c r="T7" s="127" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="127"/>
-      <c r="X7" s="127" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="127"/>
-      <c r="AB7" s="127" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="127"/>
-      <c r="AF7" s="127" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="127"/>
+      <c r="AG7" s="131"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -8764,11 +9101,11 @@
       </c>
       <c r="C8" s="7">
         <f>C6+C7</f>
-        <v>0</v>
+        <v>2703.63</v>
       </c>
       <c r="D8" s="24">
         <f>D6+D7</f>
-        <v>0</v>
+        <v>2703.63</v>
       </c>
       <c r="F8" s="48" t="s">
         <v>74</v>
@@ -8779,57 +9116,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="128" t="s">
+      <c r="L8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="128"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
-        <v>36.159999999999997</v>
-      </c>
-      <c r="P8" s="128" t="s">
+        <v>132.76</v>
+      </c>
+      <c r="P8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="128"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
-        <v>15</v>
-      </c>
-      <c r="T8" s="128" t="s">
+        <v>123.29999999999998</v>
+      </c>
+      <c r="T8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="128"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
-        <v>59.96</v>
-      </c>
-      <c r="X8" s="128" t="s">
+        <v>309.15000000000003</v>
+      </c>
+      <c r="X8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="128"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="AB8" s="128" t="s">
+        <v>121.82</v>
+      </c>
+      <c r="AB8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="128"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
-        <v>14.04</v>
-      </c>
-      <c r="AF8" s="128" t="s">
+        <v>84.039999999999992</v>
+      </c>
+      <c r="AF8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="128"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
-        <v>72.19</v>
+        <v>367.37</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="124"/>
-      <c r="AK8" s="124"/>
+      <c r="AJ8" s="128"/>
+      <c r="AK8" s="128"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -8837,7 +9174,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="26">
         <f>SUM(C8:D8)</f>
-        <v>0</v>
+        <v>5407.26</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="3"/>
@@ -8919,7 +9256,7 @@
       <c r="M10" t="s">
         <v>122</v>
       </c>
-      <c r="N10" s="120">
+      <c r="N10" s="89">
         <v>36.159999999999997</v>
       </c>
       <c r="P10" s="59">
@@ -8988,7 +9325,7 @@
       </c>
       <c r="J11" s="22">
         <f>N8</f>
-        <v>36.159999999999997</v>
+        <v>132.76</v>
       </c>
       <c r="L11" s="59">
         <v>42743</v>
@@ -8996,8 +9333,18 @@
       <c r="M11" t="s">
         <v>123</v>
       </c>
-      <c r="N11" s="120"/>
-      <c r="R11" s="89"/>
+      <c r="N11" s="89">
+        <v>27.84</v>
+      </c>
+      <c r="P11" s="59">
+        <v>42744</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>122</v>
+      </c>
+      <c r="R11" s="89">
+        <v>31.8</v>
+      </c>
       <c r="T11" s="59">
         <v>42736</v>
       </c>
@@ -9007,7 +9354,25 @@
       <c r="V11" s="89">
         <v>14</v>
       </c>
-      <c r="Z11" s="89"/>
+      <c r="X11" s="59">
+        <v>42750</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z11" s="89">
+        <v>13</v>
+      </c>
+      <c r="AB11" s="59">
+        <v>42754</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD11" s="89">
+        <f>70</f>
+        <v>70</v>
+      </c>
       <c r="AF11" s="59">
         <v>42737</v>
       </c>
@@ -9024,12 +9389,10 @@
         <v>110</v>
       </c>
       <c r="C12" s="30">
-        <f>0.147*C8</f>
-        <v>0</v>
+        <v>405.92</v>
       </c>
       <c r="D12" s="30">
-        <f>0.147*D8</f>
-        <v>0</v>
+        <v>405.17</v>
       </c>
       <c r="F12" s="51" t="s">
         <v>38</v>
@@ -9044,10 +9407,27 @@
       </c>
       <c r="J12" s="22">
         <f>R8</f>
-        <v>15</v>
-      </c>
-      <c r="N12" s="89"/>
-      <c r="R12" s="89"/>
+        <v>123.29999999999998</v>
+      </c>
+      <c r="L12" s="59">
+        <v>42749</v>
+      </c>
+      <c r="M12" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="89">
+        <v>34.1</v>
+      </c>
+      <c r="P12" s="59">
+        <v>42747</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>122</v>
+      </c>
+      <c r="R12" s="89">
+        <f>13.95-7.55</f>
+        <v>6.3999999999999995</v>
+      </c>
       <c r="T12" s="59">
         <v>42737</v>
       </c>
@@ -9057,14 +9437,22 @@
       <c r="V12" s="9">
         <v>8.65</v>
       </c>
-      <c r="Z12" s="89"/>
+      <c r="X12" s="59">
+        <v>42750</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z12" s="89">
+        <v>18.5</v>
+      </c>
       <c r="AF12" s="59">
         <v>42739</v>
       </c>
       <c r="AG12" t="s">
         <v>120</v>
       </c>
-      <c r="AH12" s="120">
+      <c r="AH12" s="89">
         <f>59.69-9.75</f>
         <v>49.94</v>
       </c>
@@ -9074,18 +9462,17 @@
         <v>21</v>
       </c>
       <c r="C13" s="30">
-        <f>0.062*C9</f>
-        <v>0</v>
+        <v>167.81</v>
       </c>
       <c r="D13" s="30">
-        <f>0.062*D9</f>
-        <v>0</v>
+        <v>167.63</v>
       </c>
       <c r="F13" s="51" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="3">
-        <v>16.53</v>
+        <f>16.53+15.86</f>
+        <v>32.39</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
@@ -9093,9 +9480,27 @@
       </c>
       <c r="J13" s="22">
         <f>V8</f>
-        <v>59.96</v>
-      </c>
-      <c r="R13" s="89"/>
+        <v>309.15000000000003</v>
+      </c>
+      <c r="L13" s="59">
+        <v>42764</v>
+      </c>
+      <c r="M13" t="s">
+        <v>163</v>
+      </c>
+      <c r="N13" s="89">
+        <f>34.66</f>
+        <v>34.659999999999997</v>
+      </c>
+      <c r="P13" s="59">
+        <v>42756</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R13" s="89">
+        <v>64.97</v>
+      </c>
       <c r="T13" s="59">
         <v>42737</v>
       </c>
@@ -9105,14 +9510,22 @@
       <c r="V13" s="89">
         <v>15.1</v>
       </c>
-      <c r="Z13" s="89"/>
+      <c r="X13" s="59">
+        <v>42756</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z13" s="89">
+        <v>28.54</v>
+      </c>
       <c r="AF13" s="59">
         <v>42740</v>
       </c>
       <c r="AG13" t="s">
         <v>121</v>
       </c>
-      <c r="AH13" s="120">
+      <c r="AH13" s="89">
         <f>8.14</f>
         <v>8.14</v>
       </c>
@@ -9122,12 +9535,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="30">
-        <f>0.0145*C10</f>
-        <v>0</v>
+        <v>39.25</v>
       </c>
       <c r="D14" s="30">
-        <f>0.0145*D10</f>
-        <v>0</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="F14" s="51" t="s">
         <v>40</v>
@@ -9141,18 +9552,36 @@
       </c>
       <c r="J14" s="22">
         <f>Z8</f>
-        <v>9.2799999999999994</v>
+        <v>121.82</v>
+      </c>
+      <c r="P14" s="59">
+        <v>42766</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R14" s="9">
+        <v>5.13</v>
       </c>
       <c r="T14" s="59">
-        <v>42741</v>
+        <v>42740</v>
       </c>
       <c r="U14" t="s">
-        <v>125</v>
-      </c>
-      <c r="V14" s="89">
-        <v>12.21</v>
-      </c>
-      <c r="Z14" s="89"/>
+        <v>126</v>
+      </c>
+      <c r="V14" s="9">
+        <v>9.01</v>
+      </c>
+      <c r="X14" s="59">
+        <v>42758</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z14" s="89">
+        <f>37+2.5</f>
+        <v>39.5</v>
+      </c>
       <c r="AF14" s="59">
         <v>42740</v>
       </c>
@@ -9169,18 +9598,18 @@
       </c>
       <c r="C15" s="11">
         <f>SUM(C12:C14)</f>
-        <v>0</v>
+        <v>612.98</v>
       </c>
       <c r="D15" s="32">
         <f>SUM(D12:D14)</f>
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="91">
         <f>SUM(G11:G14)</f>
-        <v>53.6875</v>
+        <v>69.547499999999999</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
@@ -9188,22 +9617,48 @@
       </c>
       <c r="J15" s="22">
         <f>AD8</f>
-        <v>14.04</v>
-      </c>
-      <c r="V15" s="89"/>
-      <c r="Z15" s="89"/>
+        <v>84.039999999999992</v>
+      </c>
+      <c r="T15" s="59">
+        <v>42741</v>
+      </c>
+      <c r="U15" t="s">
+        <v>125</v>
+      </c>
+      <c r="V15" s="89">
+        <v>12.21</v>
+      </c>
+      <c r="X15" s="59">
+        <v>42759</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z15" s="89">
+        <f>13</f>
+        <v>13</v>
+      </c>
+      <c r="AF15" s="59">
+        <v>42744</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH15" s="9">
+        <v>2.16</v>
+      </c>
     </row>
     <row r="16" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="13" t="e">
+      <c r="C16" s="13">
         <f>C15/C8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="33" t="e">
+        <v>0.22672481071744285</v>
+      </c>
+      <c r="D16" s="33">
         <f>D15/D8</f>
-        <v>#DIV/0!</v>
+        <v>0.22636233508283307</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="3"/>
@@ -9213,16 +9668,33 @@
       </c>
       <c r="J16" s="22">
         <f>AH8</f>
-        <v>72.19</v>
-      </c>
-      <c r="V16" s="89"/>
-    </row>
-    <row r="17" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>367.37</v>
+      </c>
+      <c r="T16" s="59">
+        <v>42748</v>
+      </c>
+      <c r="U16" t="s">
+        <v>128</v>
+      </c>
+      <c r="V16" s="89">
+        <v>19.5</v>
+      </c>
+      <c r="AF16" s="59">
+        <v>42748</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="29"/>
       <c r="C17" s="13"/>
       <c r="D17" s="34">
         <f>SUM(C15:D15)</f>
-        <v>0</v>
+        <v>1224.98</v>
       </c>
       <c r="F17" s="54" t="s">
         <v>48</v>
@@ -9233,22 +9705,41 @@
         <v>78</v>
       </c>
       <c r="J17" s="22">
-        <v>20</v>
+        <f>1.2+3.75+2.03+2.52</f>
+        <v>9.5</v>
       </c>
       <c r="R17" s="89"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="T17" s="59">
+        <v>42750</v>
+      </c>
+      <c r="U17" t="s">
+        <v>133</v>
+      </c>
+      <c r="V17" s="9">
+        <v>20.58</v>
+      </c>
+      <c r="AF17" s="59">
+        <v>42749</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH17" s="9">
+        <v>61.13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="37" t="e">
+      <c r="D18" s="37">
         <f>D17/D9</f>
-        <v>#DIV/0!</v>
+        <v>0.22654357290013796</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>85</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>497.3</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="66" t="s">
@@ -9256,16 +9747,35 @@
       </c>
       <c r="J18" s="22">
         <f>J33</f>
-        <v>0</v>
+        <v>484.28</v>
+      </c>
+      <c r="T18" s="59">
+        <v>42751</v>
+      </c>
+      <c r="U18" t="s">
+        <v>136</v>
+      </c>
+      <c r="V18" s="9">
+        <v>10.16</v>
       </c>
       <c r="Z18" s="89"/>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AF18" s="59">
+        <v>42750</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH18" s="9">
+        <f>8+1.02</f>
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
       <c r="F19" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="44" t="s">
@@ -9273,10 +9783,29 @@
       </c>
       <c r="J19" s="53">
         <f>SUM(J11:J18)</f>
-        <v>226.63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1632.22</v>
+      </c>
+      <c r="T19" s="59">
+        <v>42752</v>
+      </c>
+      <c r="U19" t="s">
+        <v>137</v>
+      </c>
+      <c r="V19" s="9">
+        <v>11.9</v>
+      </c>
+      <c r="AF19" s="59">
+        <v>42752</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH19" s="89">
+        <f>97.35+43.65</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>27</v>
       </c>
@@ -9286,30 +9815,47 @@
         <v>43</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T20" s="59">
+        <v>42753</v>
+      </c>
+      <c r="U20" t="s">
+        <v>138</v>
+      </c>
+      <c r="V20" s="89">
+        <v>11.58</v>
+      </c>
+      <c r="AF20" s="59">
+        <v>42761</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH20" s="9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
         <v>107</v>
       </c>
       <c r="C21" s="22">
         <f>0.08*C6</f>
-        <v>0</v>
+        <v>216.29040000000001</v>
       </c>
       <c r="D21" s="22">
         <f>0.08*D6</f>
-        <v>0</v>
+        <v>216.29040000000001</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>75</v>
       </c>
       <c r="G21" s="3">
-        <f>1.2</f>
-        <v>1.2</v>
+        <v>80</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="45" t="s">
@@ -9317,164 +9863,291 @@
       </c>
       <c r="J21" s="93">
         <f>SUM(G26,J19)</f>
-        <v>981.51750000000004</v>
-      </c>
-      <c r="V21" s="89"/>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
+        <v>3457.5174999999999</v>
+      </c>
+      <c r="T21" s="59">
+        <v>42754</v>
+      </c>
+      <c r="U21" t="s">
+        <v>141</v>
+      </c>
+      <c r="V21" s="89">
+        <v>8.52</v>
+      </c>
+      <c r="AF21" s="59">
+        <v>42764</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH21" s="89">
+        <f>4.25</f>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B22" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="22">
         <f>0.04*C6</f>
-        <v>0</v>
+        <v>108.1452</v>
       </c>
       <c r="D22" s="22">
         <f>0.04*D6</f>
-        <v>0</v>
+        <v>108.1452</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>52.24</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="49"/>
-      <c r="V22" s="89"/>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="T22" s="59">
+        <v>42755</v>
+      </c>
+      <c r="U22" t="s">
+        <v>143</v>
+      </c>
+      <c r="V22" s="89">
+        <v>28.92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B23" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="12">
         <f>SUM(C21:C22)</f>
-        <v>0</v>
+        <v>324.43560000000002</v>
       </c>
       <c r="D23" s="38">
         <f>SUM(D21:D22)</f>
-        <v>0</v>
+        <v>324.43560000000002</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>45</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="49"/>
-      <c r="V23" s="89"/>
-    </row>
-    <row r="24" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T23" s="59">
+        <v>42755</v>
+      </c>
+      <c r="U23" t="s">
+        <v>144</v>
+      </c>
+      <c r="V23" s="89">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
-      <c r="C24" s="39" t="e">
+      <c r="C24" s="39">
         <f>C23/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D24" s="40" t="e">
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="D24" s="40">
         <f>D23/D6</f>
-        <v>#DIV/0!</v>
+        <v>0.12000000000000001</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>79</v>
       </c>
       <c r="G24" s="90">
-        <v>0</v>
+        <v>10.81</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="49"/>
-    </row>
-    <row r="25" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T24" s="59">
+        <v>42757</v>
+      </c>
+      <c r="U24" t="s">
+        <v>147</v>
+      </c>
+      <c r="V24" s="9">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="10"/>
       <c r="D25" s="41">
         <f>SUM(C23:D23)</f>
-        <v>0</v>
+        <v>648.87120000000004</v>
       </c>
       <c r="F25" s="55" t="s">
         <v>50</v>
       </c>
       <c r="G25" s="43">
         <f>SUM(G18:G24)</f>
-        <v>1.2</v>
+        <v>1055.75</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="49"/>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="T25" s="59">
+        <v>42758</v>
+      </c>
+      <c r="U25" t="s">
+        <v>149</v>
+      </c>
+      <c r="V25" s="89">
+        <f>31.21</f>
+        <v>31.21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B26" s="25"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="42" t="e">
+      <c r="D26" s="42">
         <f>D25/SUM(C6:D6)</f>
-        <v>#DIV/0!</v>
+        <v>0.12000000000000001</v>
       </c>
       <c r="F26" s="94" t="s">
         <v>49</v>
       </c>
       <c r="G26" s="95">
         <f>SUM(G8,G15,G25)</f>
-        <v>754.88750000000005</v>
+        <v>1825.2975000000001</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="56"/>
-    </row>
-    <row r="27" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T26" s="59">
+        <v>42760</v>
+      </c>
+      <c r="U26" t="s">
+        <v>152</v>
+      </c>
+      <c r="V26" s="89">
+        <f>10.97</f>
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T27" s="59">
+        <v>42762</v>
+      </c>
+      <c r="U27" t="s">
+        <v>154</v>
+      </c>
+      <c r="V27" s="9">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="15">
         <f>C8-C15-C23</f>
-        <v>0</v>
+        <v>1766.2144000000001</v>
       </c>
       <c r="D28" s="16">
         <f>D8-D15-D23</f>
-        <v>0</v>
+        <v>1767.1944000000001</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>59</v>
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>17994.342499999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>19476.751300000004</v>
+      </c>
+      <c r="T28" s="59">
+        <v>42763</v>
+      </c>
+      <c r="U28" t="s">
+        <v>155</v>
+      </c>
+      <c r="V28" s="9">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D29" s="17">
         <f>SUM(C28:D28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
+        <v>3533.4088000000002</v>
+      </c>
+      <c r="T29" s="59">
+        <v>42763</v>
+      </c>
+      <c r="U29" t="s">
+        <v>156</v>
+      </c>
+      <c r="V29" s="89">
+        <f>12.55</f>
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.2">
       <c r="I30" t="s">
         <v>84</v>
       </c>
       <c r="J30" s="9">
         <f>J28-G2</f>
-        <v>-901.51750000000175</v>
-      </c>
-    </row>
-    <row r="32" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>580.89130000000296</v>
+      </c>
+      <c r="T30" s="59">
+        <v>42764</v>
+      </c>
+      <c r="U30" t="s">
+        <v>157</v>
+      </c>
+      <c r="V30" s="89">
+        <f>10.99</f>
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="T31" s="59">
+        <v>42765</v>
+      </c>
+      <c r="U31" t="s">
+        <v>159</v>
+      </c>
+      <c r="V31" s="89">
+        <f>6.52</f>
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="9"/>
       <c r="I32" s="113" t="s">
         <v>86</v>
       </c>
       <c r="J32" s="114"/>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="T32" s="59">
+        <v>42765</v>
+      </c>
+      <c r="U32" t="s">
+        <v>125</v>
+      </c>
+      <c r="V32" s="89">
+        <f>8.85</f>
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D33" s="9"/>
       <c r="I33" s="118" t="s">
         <v>66</v>
       </c>
       <c r="J33" s="115">
         <f>SUM(J35:J38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
+        <v>484.28</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D34" s="9"/>
       <c r="I34" s="25" t="s">
         <v>63</v>
       </c>
@@ -9482,7 +10155,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:10" x14ac:dyDescent="0.2">
       <c r="I35" s="21" t="s">
         <v>117</v>
       </c>
@@ -9491,26 +10164,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I36" s="21"/>
-      <c r="J36" s="30"/>
-    </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I37" s="21"/>
-      <c r="J37" s="49"/>
-    </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I38" s="25"/>
-      <c r="J38" s="117"/>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I36" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" s="30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I37" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J37" s="121">
+        <f>24+9</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I38" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="J38" s="120">
+        <v>401.28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="AJ8:AK8"/>
@@ -9527,6 +10207,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9537,7 +10223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9589,7 +10277,7 @@
       </c>
       <c r="G2" s="2">
         <f>Jan!J28</f>
-        <v>17994.342499999999</v>
+        <v>19476.751300000004</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -9599,14 +10287,14 @@
       </c>
       <c r="C3" s="9">
         <f>C6*24</f>
-        <v>0</v>
+        <v>64887.12</v>
       </c>
       <c r="F3" s="109" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="4">
         <f>D29</f>
-        <v>0</v>
+        <v>10809.303599999999</v>
       </c>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.2">
@@ -9614,65 +10302,66 @@
         <v>33</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <f>-0.02</f>
+        <v>-0.02</v>
       </c>
       <c r="I4" t="s">
         <v>95</v>
       </c>
       <c r="J4" s="9">
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
-        <v>950</v>
-      </c>
-      <c r="L4" s="122" t="s">
+        <v>-64.260000000000034</v>
+      </c>
+      <c r="L4" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="122"/>
+      <c r="M4" s="126"/>
       <c r="N4" s="9">
         <f>150-N8</f>
-        <v>150</v>
-      </c>
-      <c r="P4" s="122" t="s">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="P4" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="122"/>
+      <c r="Q4" s="126"/>
       <c r="R4" s="9">
         <f>100-R8</f>
-        <v>100</v>
-      </c>
-      <c r="T4" s="122" t="s">
+        <v>-11.86</v>
+      </c>
+      <c r="T4" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="122"/>
+      <c r="U4" s="126"/>
       <c r="V4" s="9">
         <f>200-V8</f>
-        <v>200</v>
-      </c>
-      <c r="X4" s="122" t="s">
+        <v>-63.700000000000045</v>
+      </c>
+      <c r="X4" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="122"/>
+      <c r="Y4" s="126"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
-        <v>100</v>
-      </c>
-      <c r="AB4" s="122" t="s">
+        <v>-84.41</v>
+      </c>
+      <c r="AB4" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="122"/>
+      <c r="AC4" s="126"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
-        <v>100</v>
-      </c>
-      <c r="AF4" s="122" t="s">
+        <v>-37.329999999999984</v>
+      </c>
+      <c r="AF4" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="122"/>
+      <c r="AG4" s="126"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
-        <v>300</v>
-      </c>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
+        <v>51.94</v>
+      </c>
+      <c r="AJ4" s="126"/>
+      <c r="AK4" s="126"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9690,7 +10379,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>17994.342499999999</v>
+        <v>30286.034900000002</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -9700,15 +10389,15 @@
         <v>19</v>
       </c>
       <c r="C6" s="90">
-        <v>0</v>
+        <v>2703.63</v>
       </c>
       <c r="D6" s="22">
-        <v>0</v>
-      </c>
-      <c r="L6" s="125" t="s">
+        <v>2703.63</v>
+      </c>
+      <c r="L6" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="125"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -9743,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="22">
-        <v>0</v>
+        <v>10963.67</v>
       </c>
       <c r="F7" s="46" t="s">
         <v>35</v>
@@ -9752,33 +10441,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="P7" s="127" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="127"/>
-      <c r="T7" s="127" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="127"/>
-      <c r="X7" s="127" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="127"/>
-      <c r="AB7" s="127" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="127"/>
-      <c r="AF7" s="127" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="127"/>
+      <c r="AG7" s="131"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -9787,72 +10476,72 @@
       </c>
       <c r="C8" s="7">
         <f>C6+C7</f>
-        <v>0</v>
+        <v>2703.63</v>
       </c>
       <c r="D8" s="24">
         <f>D6+D7</f>
-        <v>0</v>
+        <v>13667.3</v>
       </c>
       <c r="F8" s="48" t="s">
         <v>74</v>
       </c>
       <c r="G8" s="91">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="128" t="s">
+      <c r="L8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="128"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="128" t="s">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="P8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="128"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="128" t="s">
+        <v>111.86</v>
+      </c>
+      <c r="T8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="128"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="128" t="s">
+        <v>263.70000000000005</v>
+      </c>
+      <c r="X8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="128"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="128" t="s">
+        <v>184.41</v>
+      </c>
+      <c r="AB8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="128"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="128" t="s">
+        <v>137.32999999999998</v>
+      </c>
+      <c r="AF8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="128"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
-        <v>0</v>
+        <v>248.06</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="124"/>
-      <c r="AK8" s="124"/>
+      <c r="AJ8" s="128"/>
+      <c r="AK8" s="128"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -9860,7 +10549,7 @@
       <c r="C9" s="8"/>
       <c r="D9" s="26">
         <f>SUM(C8:D8)</f>
-        <v>0</v>
+        <v>16370.93</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="3"/>
@@ -9936,11 +10625,68 @@
         <v>52</v>
       </c>
       <c r="J10" s="49"/>
-      <c r="N10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AH10" s="89"/>
+      <c r="L10" s="59">
+        <v>42771</v>
+      </c>
+      <c r="M10" t="s">
+        <v>169</v>
+      </c>
+      <c r="N10" s="89">
+        <f>35.91</f>
+        <v>35.909999999999997</v>
+      </c>
+      <c r="P10" s="59">
+        <v>42771</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>122</v>
+      </c>
+      <c r="R10" s="89">
+        <f>37.44</f>
+        <v>37.44</v>
+      </c>
+      <c r="T10" s="59">
+        <v>42770</v>
+      </c>
+      <c r="U10" t="s">
+        <v>166</v>
+      </c>
+      <c r="V10" s="89">
+        <f>6.45</f>
+        <v>6.45</v>
+      </c>
+      <c r="W10" s="123"/>
+      <c r="X10" s="124">
+        <v>42770</v>
+      </c>
+      <c r="Y10" s="123" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z10" s="89">
+        <v>15.16</v>
+      </c>
+      <c r="AA10" s="123"/>
+      <c r="AB10" s="124">
+        <v>42776</v>
+      </c>
+      <c r="AC10" s="123" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD10" s="89">
+        <f>282.75-(40.4*5)-40</f>
+        <v>40.75</v>
+      </c>
+      <c r="AE10" s="123"/>
+      <c r="AF10" s="124">
+        <v>42771</v>
+      </c>
+      <c r="AG10" s="123" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH10" s="89">
+        <f>45+45</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
@@ -9952,7 +10698,8 @@
         <v>37</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <f>75.01/4</f>
+        <v>18.752500000000001</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
@@ -9960,31 +10707,85 @@
       </c>
       <c r="J11" s="22">
         <f>N8</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="89"/>
-      <c r="R11" s="89"/>
-      <c r="V11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AH11" s="89"/>
+        <v>68.900000000000006</v>
+      </c>
+      <c r="L11" s="59">
+        <v>42779</v>
+      </c>
+      <c r="M11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="89">
+        <f>32.99</f>
+        <v>32.99</v>
+      </c>
+      <c r="P11" s="59">
+        <v>42775</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>172</v>
+      </c>
+      <c r="R11" s="89">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="T11" s="59">
+        <v>42777</v>
+      </c>
+      <c r="U11" t="s">
+        <v>173</v>
+      </c>
+      <c r="V11" s="89">
+        <f>24.9-12</f>
+        <v>12.899999999999999</v>
+      </c>
+      <c r="W11" s="123"/>
+      <c r="X11" s="124">
+        <v>42770</v>
+      </c>
+      <c r="Y11" s="123" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z11" s="89">
+        <f>17</f>
+        <v>17</v>
+      </c>
+      <c r="AA11" s="123"/>
+      <c r="AB11" s="124">
+        <v>42781</v>
+      </c>
+      <c r="AC11" s="123" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD11" s="89">
+        <v>11</v>
+      </c>
+      <c r="AE11" s="123"/>
+      <c r="AF11" s="124">
+        <v>42773</v>
+      </c>
+      <c r="AG11" s="123" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH11" s="89">
+        <v>64.95</v>
+      </c>
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="30">
-        <f>0.147*C8</f>
-        <v>0</v>
+        <v>405.92</v>
       </c>
       <c r="D12" s="30">
-        <f>0.147*D8</f>
-        <v>0</v>
+        <v>3146.09</v>
       </c>
       <c r="F12" s="51" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <f>(46.68+65.41)/4</f>
+        <v>28.022500000000001</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10" t="s">
@@ -9992,30 +10793,75 @@
       </c>
       <c r="J12" s="22">
         <f>R8</f>
-        <v>0</v>
+        <v>111.86</v>
       </c>
       <c r="N12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AH12" s="89"/>
+      <c r="P12" s="59">
+        <v>42787</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>122</v>
+      </c>
+      <c r="R12" s="89">
+        <v>64.62</v>
+      </c>
+      <c r="T12" s="59">
+        <v>42779</v>
+      </c>
+      <c r="U12" t="s">
+        <v>155</v>
+      </c>
+      <c r="V12" s="89">
+        <v>6.4</v>
+      </c>
+      <c r="W12" s="123"/>
+      <c r="X12" s="124">
+        <v>42776</v>
+      </c>
+      <c r="Y12" s="123" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z12" s="89">
+        <v>13.91</v>
+      </c>
+      <c r="AA12" s="123"/>
+      <c r="AB12" s="124">
+        <v>42787</v>
+      </c>
+      <c r="AC12" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD12" s="89">
+        <v>30</v>
+      </c>
+      <c r="AE12" s="123"/>
+      <c r="AF12" s="124">
+        <v>42777</v>
+      </c>
+      <c r="AG12" s="123" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH12" s="89">
+        <f>500-(50*8)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="30">
-        <f>0.062*C9</f>
-        <v>0</v>
+        <v>167.81</v>
       </c>
       <c r="D13" s="30">
-        <f>0.062*D9</f>
-        <v>0</v>
+        <v>847.37</v>
       </c>
       <c r="F13" s="51" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <f>16.53+14.3</f>
+        <v>30.830000000000002</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
@@ -10023,24 +10869,60 @@
       </c>
       <c r="J13" s="22">
         <f>V8</f>
-        <v>0</v>
+        <v>263.70000000000005</v>
       </c>
       <c r="R13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AH13" s="89"/>
+      <c r="T13" s="59">
+        <v>42779</v>
+      </c>
+      <c r="U13" t="s">
+        <v>180</v>
+      </c>
+      <c r="V13" s="89">
+        <f>32.48</f>
+        <v>32.479999999999997</v>
+      </c>
+      <c r="W13" s="123"/>
+      <c r="X13" s="124">
+        <v>42778</v>
+      </c>
+      <c r="Y13" s="123" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z13" s="89">
+        <v>18</v>
+      </c>
+      <c r="AA13" s="123"/>
+      <c r="AB13" s="124">
+        <v>42787</v>
+      </c>
+      <c r="AC13" s="123" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD13" s="89">
+        <v>9.08</v>
+      </c>
+      <c r="AE13" s="123"/>
+      <c r="AF13" s="124">
+        <v>42780</v>
+      </c>
+      <c r="AG13" s="123" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH13" s="89">
+        <f>20.11</f>
+        <v>20.11</v>
+      </c>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B14" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="30">
-        <f>0.0145*C10</f>
-        <v>0</v>
+        <v>39.24</v>
       </c>
       <c r="D14" s="30">
-        <f>0.0145*D10</f>
-        <v>0</v>
+        <v>198.18</v>
       </c>
       <c r="F14" s="51" t="s">
         <v>40</v>
@@ -10054,11 +10936,48 @@
       </c>
       <c r="J14" s="22">
         <f>Z8</f>
-        <v>0</v>
-      </c>
-      <c r="V14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AH14" s="89"/>
+        <v>184.41</v>
+      </c>
+      <c r="T14" s="59">
+        <v>42781</v>
+      </c>
+      <c r="U14" t="s">
+        <v>184</v>
+      </c>
+      <c r="V14" s="89">
+        <v>12.98</v>
+      </c>
+      <c r="W14" s="123"/>
+      <c r="X14" s="124">
+        <v>42781</v>
+      </c>
+      <c r="Y14" s="123" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z14" s="89">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="123"/>
+      <c r="AB14" s="124">
+        <v>42791</v>
+      </c>
+      <c r="AC14" s="123" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD14" s="89">
+        <v>46.5</v>
+      </c>
+      <c r="AE14" s="123"/>
+      <c r="AF14" s="124">
+        <v>42785</v>
+      </c>
+      <c r="AG14" s="123" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH14" s="89">
+        <f>13</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B15" s="31" t="s">
@@ -10066,18 +10985,18 @@
       </c>
       <c r="C15" s="11">
         <f>SUM(C12:C14)</f>
-        <v>0</v>
+        <v>612.97</v>
       </c>
       <c r="D15" s="32">
         <f>SUM(D12:D14)</f>
-        <v>0</v>
+        <v>4191.6400000000003</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="91">
         <f>SUM(G11:G14)</f>
-        <v>0</v>
+        <v>77.605000000000004</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
@@ -10085,22 +11004,47 @@
       </c>
       <c r="J15" s="22">
         <f>AD8</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="89"/>
-      <c r="Z15" s="89"/>
+        <v>137.32999999999998</v>
+      </c>
+      <c r="T15" s="59">
+        <v>42782</v>
+      </c>
+      <c r="U15" t="s">
+        <v>185</v>
+      </c>
+      <c r="V15" s="89">
+        <v>13</v>
+      </c>
+      <c r="W15" s="123"/>
+      <c r="X15" s="124">
+        <v>42782</v>
+      </c>
+      <c r="Y15" s="123" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z15" s="89">
+        <v>17.48</v>
+      </c>
+      <c r="AA15" s="123"/>
+      <c r="AB15" s="124"/>
+      <c r="AC15" s="123"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="123"/>
+      <c r="AF15" s="124"/>
+      <c r="AG15" s="123"/>
+      <c r="AH15" s="89"/>
     </row>
     <row r="16" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="13" t="e">
+      <c r="C16" s="13">
         <f>C15/C8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="33" t="e">
+        <v>0.22672111198647743</v>
+      </c>
+      <c r="D16" s="33">
         <f>D15/D8</f>
-        <v>#DIV/0!</v>
+        <v>0.30669115333679664</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="3"/>
@@ -10110,16 +11054,50 @@
       </c>
       <c r="J16" s="22">
         <f>AH8</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="89"/>
-    </row>
-    <row r="17" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>248.06</v>
+      </c>
+      <c r="T16" s="59">
+        <v>42782</v>
+      </c>
+      <c r="U16" t="s">
+        <v>125</v>
+      </c>
+      <c r="V16" s="89">
+        <v>2.68</v>
+      </c>
+      <c r="W16" s="123"/>
+      <c r="X16" s="124">
+        <v>42783</v>
+      </c>
+      <c r="Y16" s="123" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z16" s="89">
+        <f>11.25+10.95</f>
+        <v>22.2</v>
+      </c>
+      <c r="AA16" s="123"/>
+      <c r="AB16" s="124"/>
+      <c r="AC16" s="123"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="123"/>
+      <c r="AF16" s="124">
+        <v>42790</v>
+      </c>
+      <c r="AG16" s="123" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH16" s="89">
+        <f>-20*2</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="29"/>
       <c r="C17" s="13"/>
       <c r="D17" s="34">
         <f>SUM(C15:D15)</f>
-        <v>0</v>
+        <v>4804.6100000000006</v>
       </c>
       <c r="F17" s="54" t="s">
         <v>48</v>
@@ -10130,22 +11108,51 @@
         <v>78</v>
       </c>
       <c r="J17" s="22">
-        <v>0</v>
+        <f>3.47+0.87+4.49+2.75</f>
+        <v>11.58</v>
       </c>
       <c r="R17" s="89"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="T17" s="59">
+        <v>42784</v>
+      </c>
+      <c r="U17" t="s">
+        <v>188</v>
+      </c>
+      <c r="V17" s="89">
+        <v>28.37</v>
+      </c>
+      <c r="W17" s="123"/>
+      <c r="X17" s="124">
+        <v>42784</v>
+      </c>
+      <c r="Y17" s="123" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z17" s="89">
+        <f>18+16</f>
+        <v>34</v>
+      </c>
+      <c r="AA17" s="123"/>
+      <c r="AB17" s="124"/>
+      <c r="AC17" s="123"/>
+      <c r="AD17" s="89"/>
+      <c r="AE17" s="123"/>
+      <c r="AF17" s="124"/>
+      <c r="AG17" s="123"/>
+      <c r="AH17" s="89"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="37" t="e">
+      <c r="D18" s="37">
         <f>D17/D9</f>
-        <v>#DIV/0!</v>
+        <v>0.29348424310653093</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>85</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>497.3</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="66" t="s">
@@ -10153,16 +11160,42 @@
       </c>
       <c r="J18" s="22">
         <f>J33</f>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="89"/>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+        <v>280.2</v>
+      </c>
+      <c r="T18" s="59">
+        <v>42785</v>
+      </c>
+      <c r="U18" t="s">
+        <v>189</v>
+      </c>
+      <c r="V18" s="89">
+        <v>24.73</v>
+      </c>
+      <c r="W18" s="123"/>
+      <c r="X18" s="59">
+        <v>42790</v>
+      </c>
+      <c r="Y18" s="123" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>16</v>
+      </c>
+      <c r="AA18" s="123"/>
+      <c r="AB18" s="124"/>
+      <c r="AC18" s="123"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="123"/>
+      <c r="AF18" s="124"/>
+      <c r="AG18" s="123"/>
+      <c r="AH18" s="89"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
       <c r="F19" s="21" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="44" t="s">
@@ -10170,10 +11203,39 @@
       </c>
       <c r="J19" s="53">
         <f>SUM(J11:J18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1306.04</v>
+      </c>
+      <c r="T19" s="59">
+        <v>42785</v>
+      </c>
+      <c r="U19" t="s">
+        <v>190</v>
+      </c>
+      <c r="V19" s="89">
+        <f>109.57</f>
+        <v>109.57</v>
+      </c>
+      <c r="W19" s="123"/>
+      <c r="X19" s="124">
+        <v>42792</v>
+      </c>
+      <c r="Y19" s="123" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z19" s="89">
+        <f>9-7+16.66</f>
+        <v>18.66</v>
+      </c>
+      <c r="AA19" s="123"/>
+      <c r="AB19" s="124"/>
+      <c r="AC19" s="123"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="123"/>
+      <c r="AF19" s="124"/>
+      <c r="AG19" s="123"/>
+      <c r="AH19" s="89"/>
+    </row>
+    <row r="20" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>27</v>
       </c>
@@ -10183,29 +11245,58 @@
         <v>43</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T20" s="59">
+        <v>42786</v>
+      </c>
+      <c r="U20" t="s">
+        <v>191</v>
+      </c>
+      <c r="V20" s="89">
+        <f>7.92</f>
+        <v>7.92</v>
+      </c>
+      <c r="W20" s="123"/>
+      <c r="X20" s="124">
+        <v>42792</v>
+      </c>
+      <c r="Y20" s="123" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z20" s="133">
+        <f>10-10</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="123"/>
+      <c r="AB20" s="124"/>
+      <c r="AC20" s="123"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="123"/>
+      <c r="AF20" s="124"/>
+      <c r="AG20" s="123"/>
+      <c r="AH20" s="89"/>
+    </row>
+    <row r="21" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C21" s="22">
-        <f>0.08*C6</f>
-        <v>0</v>
+        <f>0.1*C6</f>
+        <v>270.363</v>
       </c>
       <c r="D21" s="22">
-        <f>0.08*D6</f>
-        <v>0</v>
+        <f>0.1*D6</f>
+        <v>270.363</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>75</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="45" t="s">
@@ -10213,164 +11304,296 @@
       </c>
       <c r="J21" s="93">
         <f>SUM(G26,J19)</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="89"/>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
+        <v>3210.4449999999997</v>
+      </c>
+      <c r="T21" s="59">
+        <v>42791</v>
+      </c>
+      <c r="U21" t="s">
+        <v>197</v>
+      </c>
+      <c r="V21" s="89">
+        <v>6.22</v>
+      </c>
+      <c r="W21" s="123"/>
+      <c r="X21" s="124">
+        <v>42792</v>
+      </c>
+      <c r="Y21" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z21" s="133">
+        <f>37.5-37.5</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="123"/>
+      <c r="AB21" s="124"/>
+      <c r="AC21" s="123"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="123"/>
+      <c r="AF21" s="124"/>
+      <c r="AG21" s="123"/>
+      <c r="AH21" s="89"/>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B22" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="22">
         <f>0.04*C6</f>
-        <v>0</v>
+        <v>108.1452</v>
       </c>
       <c r="D22" s="22">
         <f>0.04*D6</f>
-        <v>0</v>
+        <v>108.1452</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="90">
+        <f>43.29</f>
+        <v>43.29</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="49"/>
-      <c r="V22" s="89"/>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="T22" s="59">
+        <v>42792</v>
+      </c>
+      <c r="U22" t="s">
+        <v>200</v>
+      </c>
+      <c r="V22" s="133">
+        <f>19.64-19.64</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="123"/>
+      <c r="X22" s="124"/>
+      <c r="Y22" s="123"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="123"/>
+      <c r="AB22" s="124"/>
+      <c r="AC22" s="123"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="123"/>
+      <c r="AF22" s="124"/>
+      <c r="AG22" s="123"/>
+      <c r="AH22" s="89"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B23" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="12">
         <f>SUM(C21:C22)</f>
-        <v>0</v>
+        <v>378.50819999999999</v>
       </c>
       <c r="D23" s="38">
         <f>SUM(D21:D22)</f>
-        <v>0</v>
+        <v>378.50819999999999</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>45</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="49"/>
       <c r="V23" s="89"/>
-    </row>
-    <row r="24" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W23" s="123"/>
+      <c r="X23" s="124"/>
+      <c r="Y23" s="123"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="123"/>
+      <c r="AB23" s="124"/>
+      <c r="AC23" s="123"/>
+      <c r="AD23" s="89"/>
+      <c r="AE23" s="123"/>
+      <c r="AF23" s="124"/>
+      <c r="AG23" s="123"/>
+      <c r="AH23" s="89"/>
+    </row>
+    <row r="24" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
-      <c r="C24" s="39" t="e">
+      <c r="C24" s="39">
         <f>C23/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D24" s="40" t="e">
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="D24" s="40">
         <f>D23/D6</f>
-        <v>#DIV/0!</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>79</v>
       </c>
       <c r="G24" s="90">
-        <v>0</v>
+        <f>10.81</f>
+        <v>10.81</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="49"/>
-    </row>
-    <row r="25" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V24" s="89"/>
+      <c r="W24" s="123"/>
+      <c r="X24" s="124"/>
+      <c r="Y24" s="123"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="123"/>
+      <c r="AB24" s="124"/>
+      <c r="AC24" s="123"/>
+      <c r="AD24" s="89"/>
+      <c r="AE24" s="123"/>
+      <c r="AF24" s="124"/>
+      <c r="AG24" s="123"/>
+      <c r="AH24" s="89"/>
+    </row>
+    <row r="25" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="10"/>
       <c r="D25" s="41">
         <f>SUM(C23:D23)</f>
-        <v>0</v>
+        <v>757.01639999999998</v>
       </c>
       <c r="F25" s="55" t="s">
         <v>50</v>
       </c>
       <c r="G25" s="43">
         <f>SUM(G18:G24)</f>
-        <v>0</v>
+        <v>1126.8</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="49"/>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V25" s="89"/>
+      <c r="W25" s="123"/>
+      <c r="X25" s="124"/>
+      <c r="Y25" s="123"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="123"/>
+      <c r="AB25" s="124"/>
+      <c r="AC25" s="123"/>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="123"/>
+      <c r="AF25" s="124"/>
+      <c r="AG25" s="123"/>
+      <c r="AH25" s="89"/>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B26" s="25"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="42" t="e">
+      <c r="D26" s="42">
         <f>D25/SUM(C6:D6)</f>
-        <v>#DIV/0!</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="F26" s="94" t="s">
         <v>49</v>
       </c>
       <c r="G26" s="95">
         <f>SUM(G8,G15,G25)</f>
-        <v>0</v>
+        <v>1904.405</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="56"/>
-    </row>
-    <row r="27" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V26" s="89"/>
+      <c r="W26" s="123"/>
+      <c r="X26" s="124"/>
+      <c r="Y26" s="123"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="123"/>
+      <c r="AB26" s="124"/>
+      <c r="AC26" s="123"/>
+      <c r="AD26" s="89"/>
+      <c r="AE26" s="123"/>
+      <c r="AF26" s="124"/>
+      <c r="AG26" s="123"/>
+      <c r="AH26" s="89"/>
+    </row>
+    <row r="27" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V27" s="89"/>
+      <c r="W27" s="123"/>
+      <c r="X27" s="124"/>
+      <c r="Y27" s="123"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="123"/>
+      <c r="AB27" s="124"/>
+      <c r="AC27" s="123"/>
+      <c r="AD27" s="89"/>
+      <c r="AE27" s="123"/>
+      <c r="AF27" s="124"/>
+      <c r="AG27" s="123"/>
+      <c r="AH27" s="89"/>
+    </row>
+    <row r="28" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="15">
         <f>C8-C15-C23</f>
-        <v>0</v>
+        <v>1712.1517999999999</v>
       </c>
       <c r="D28" s="16">
         <f>D8-D15-D23</f>
-        <v>0</v>
+        <v>9097.1517999999996</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>59</v>
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>17994.342499999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>27075.589900000003</v>
+      </c>
+      <c r="V28" s="89"/>
+      <c r="W28" s="123"/>
+      <c r="X28" s="124"/>
+      <c r="Y28" s="123"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="123"/>
+      <c r="AB28" s="124"/>
+      <c r="AC28" s="123"/>
+      <c r="AD28" s="89"/>
+      <c r="AE28" s="123"/>
+      <c r="AF28" s="124"/>
+      <c r="AG28" s="123"/>
+      <c r="AH28" s="89"/>
+    </row>
+    <row r="29" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D29" s="17">
         <f>SUM(C28:D28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
+        <v>10809.303599999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.2">
       <c r="I30" t="s">
         <v>84</v>
       </c>
       <c r="J30" s="9">
         <f>J28-G2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>7598.8385999999991</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I32" s="113" t="s">
         <v>86</v>
       </c>
       <c r="J32" s="114"/>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D33" s="9"/>
       <c r="I33" s="118" t="s">
         <v>66</v>
       </c>
       <c r="J33" s="115">
         <f>SUM(J35:J38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
+        <v>280.2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.2">
       <c r="I34" s="25" t="s">
         <v>63</v>
       </c>
@@ -10378,30 +11601,41 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I35" s="21"/>
-      <c r="J35" s="30"/>
-    </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I36" s="21"/>
-      <c r="J36" s="30"/>
-    </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I37" s="21"/>
-      <c r="J37" s="49"/>
-    </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I38" s="25"/>
-      <c r="J38" s="117"/>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I35" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I36" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J36" s="134">
+        <f>8+1-1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I37" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J37" s="121">
+        <v>200.2</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I38" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="J38" s="122">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="AJ8:AK8"/>
@@ -10418,6 +11652,12 @@
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10428,7 +11668,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10480,7 +11722,7 @@
       </c>
       <c r="G2" s="2">
         <f>Feb!J28</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -10514,56 +11756,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="122" t="s">
+      <c r="L4" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="122"/>
+      <c r="M4" s="126"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="122" t="s">
+      <c r="P4" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="122"/>
+      <c r="Q4" s="126"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="122" t="s">
+      <c r="T4" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="122"/>
+      <c r="U4" s="126"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="122" t="s">
+      <c r="X4" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="122"/>
+      <c r="Y4" s="126"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="122" t="s">
+      <c r="AB4" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="122"/>
+      <c r="AC4" s="126"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="122" t="s">
+      <c r="AF4" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="122"/>
+      <c r="AG4" s="126"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
+      <c r="AJ4" s="126"/>
+      <c r="AK4" s="126"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10581,7 +11823,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -10596,10 +11838,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L6" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="125"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -10643,33 +11885,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="P7" s="127" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="127"/>
-      <c r="T7" s="127" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="127"/>
-      <c r="X7" s="127" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="127"/>
-      <c r="AB7" s="127" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="127"/>
-      <c r="AF7" s="127" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="127"/>
+      <c r="AG7" s="131"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10693,57 +11935,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="128" t="s">
+      <c r="L8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="128"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="128" t="s">
+      <c r="P8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="128"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="128" t="s">
+      <c r="T8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="128"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="128" t="s">
+      <c r="X8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="128"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="128" t="s">
+      <c r="AB8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="128"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="128" t="s">
+      <c r="AF8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="128"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="124"/>
-      <c r="AK8" s="124"/>
+      <c r="AJ8" s="128"/>
+      <c r="AK8" s="128"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -10895,11 +12137,11 @@
         <v>21</v>
       </c>
       <c r="C13" s="30">
-        <f>0.062*C9</f>
+        <f>0.062*C8</f>
         <v>0</v>
       </c>
       <c r="D13" s="30">
-        <f>0.062*D9</f>
+        <f>0.062*D8</f>
         <v>0</v>
       </c>
       <c r="F13" s="51" t="s">
@@ -10926,11 +12168,11 @@
         <v>22</v>
       </c>
       <c r="C14" s="30">
-        <f>0.0145*C10</f>
+        <f>0.0145*C8</f>
         <v>0</v>
       </c>
       <c r="D14" s="30">
-        <f>0.0145*D10</f>
+        <f>0.0145*D8</f>
         <v>0</v>
       </c>
       <c r="F14" s="51" t="s">
@@ -11082,14 +12324,14 @@
     </row>
     <row r="21" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C21" s="22">
-        <f>0.08*C6</f>
+        <f>0.1*C6</f>
         <v>0</v>
       </c>
       <c r="D21" s="22">
-        <f>0.08*D6</f>
+        <f>0.1*D6</f>
         <v>0</v>
       </c>
       <c r="F21" s="21" t="s">
@@ -11228,7 +12470,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -11287,12 +12529,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="AJ8:AK8"/>
@@ -11309,6 +12545,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11319,7 +12561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11371,7 +12615,7 @@
       </c>
       <c r="G2" s="2">
         <f>Mar!J28</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -11405,56 +12649,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="122" t="s">
+      <c r="L4" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="122"/>
+      <c r="M4" s="126"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="122" t="s">
+      <c r="P4" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="122"/>
+      <c r="Q4" s="126"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="122" t="s">
+      <c r="T4" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="122"/>
+      <c r="U4" s="126"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="122" t="s">
+      <c r="X4" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="122"/>
+      <c r="Y4" s="126"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="122" t="s">
+      <c r="AB4" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="122"/>
+      <c r="AC4" s="126"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="122" t="s">
+      <c r="AF4" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="122"/>
+      <c r="AG4" s="126"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
+      <c r="AJ4" s="126"/>
+      <c r="AK4" s="126"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -11472,7 +12716,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -11487,10 +12731,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L6" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="125"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -11534,33 +12778,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="P7" s="127" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="127"/>
-      <c r="T7" s="127" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="127"/>
-      <c r="X7" s="127" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="127"/>
-      <c r="AB7" s="127" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="127"/>
-      <c r="AF7" s="127" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="127"/>
+      <c r="AG7" s="131"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -11584,57 +12828,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="128" t="s">
+      <c r="L8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="128"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="128" t="s">
+      <c r="P8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="128"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="128" t="s">
+      <c r="T8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="128"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="128" t="s">
+      <c r="X8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="128"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="128" t="s">
+      <c r="AB8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="128"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="128" t="s">
+      <c r="AF8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="128"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="124"/>
-      <c r="AK8" s="124"/>
+      <c r="AJ8" s="128"/>
+      <c r="AK8" s="128"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -11786,11 +13030,11 @@
         <v>21</v>
       </c>
       <c r="C13" s="30">
-        <f>0.062*C9</f>
+        <f>0.062*C8</f>
         <v>0</v>
       </c>
       <c r="D13" s="30">
-        <f>0.062*D9</f>
+        <f>0.062*D8</f>
         <v>0</v>
       </c>
       <c r="F13" s="51" t="s">
@@ -11817,11 +13061,11 @@
         <v>22</v>
       </c>
       <c r="C14" s="30">
-        <f>0.0145*C10</f>
+        <f>0.0145*C8</f>
         <v>0</v>
       </c>
       <c r="D14" s="30">
-        <f>0.0145*D10</f>
+        <f>0.0145*D8</f>
         <v>0</v>
       </c>
       <c r="F14" s="51" t="s">
@@ -11973,14 +13217,14 @@
     </row>
     <row r="21" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C21" s="22">
-        <f>0.08*C6</f>
+        <f>0.1*C6</f>
         <v>0</v>
       </c>
       <c r="D21" s="22">
-        <f>0.08*D6</f>
+        <f>0.1*D6</f>
         <v>0</v>
       </c>
       <c r="F21" s="21" t="s">
@@ -12119,7 +13363,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -12178,12 +13422,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="AJ8:AK8"/>
@@ -12200,6 +13438,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12210,7 +13454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12262,7 +13508,7 @@
       </c>
       <c r="G2" s="2">
         <f>Apr!J28</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -12296,56 +13542,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="122" t="s">
+      <c r="L4" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="122"/>
+      <c r="M4" s="126"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="122" t="s">
+      <c r="P4" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="122"/>
+      <c r="Q4" s="126"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="122" t="s">
+      <c r="T4" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="122"/>
+      <c r="U4" s="126"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="122" t="s">
+      <c r="X4" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="122"/>
+      <c r="Y4" s="126"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="122" t="s">
+      <c r="AB4" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="122"/>
+      <c r="AC4" s="126"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="122" t="s">
+      <c r="AF4" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="122"/>
+      <c r="AG4" s="126"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
+      <c r="AJ4" s="126"/>
+      <c r="AK4" s="126"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -12363,7 +13609,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -12378,10 +13624,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L6" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="125"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -12425,33 +13671,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="P7" s="127" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="127"/>
-      <c r="T7" s="127" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="127"/>
-      <c r="X7" s="127" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="127"/>
-      <c r="AB7" s="127" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="127"/>
-      <c r="AF7" s="127" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="127"/>
+      <c r="AG7" s="131"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -12475,57 +13721,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="128" t="s">
+      <c r="L8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="128"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="128" t="s">
+      <c r="P8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="128"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="128" t="s">
+      <c r="T8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="128"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="128" t="s">
+      <c r="X8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="128"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="128" t="s">
+      <c r="AB8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="128"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="128" t="s">
+      <c r="AF8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="128"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="124"/>
-      <c r="AK8" s="124"/>
+      <c r="AJ8" s="128"/>
+      <c r="AK8" s="128"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -12677,11 +13923,11 @@
         <v>21</v>
       </c>
       <c r="C13" s="30">
-        <f>0.062*C9</f>
+        <f>0.062*C8</f>
         <v>0</v>
       </c>
       <c r="D13" s="30">
-        <f>0.062*D9</f>
+        <f>0.062*D8</f>
         <v>0</v>
       </c>
       <c r="F13" s="51" t="s">
@@ -12708,11 +13954,11 @@
         <v>22</v>
       </c>
       <c r="C14" s="30">
-        <f>0.0145*C10</f>
+        <f>0.0145*C8</f>
         <v>0</v>
       </c>
       <c r="D14" s="30">
-        <f>0.0145*D10</f>
+        <f>0.0145*D8</f>
         <v>0</v>
       </c>
       <c r="F14" s="51" t="s">
@@ -12864,14 +14110,14 @@
     </row>
     <row r="21" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C21" s="22">
-        <f>0.08*C6</f>
+        <f>0.1*C6</f>
         <v>0</v>
       </c>
       <c r="D21" s="22">
-        <f>0.08*D6</f>
+        <f>0.1*D6</f>
         <v>0</v>
       </c>
       <c r="F21" s="21" t="s">
@@ -13010,7 +14256,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -13069,12 +14315,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="AJ8:AK8"/>
@@ -13091,6 +14331,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13100,7 +14346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13152,7 +14400,7 @@
       </c>
       <c r="G2" s="2">
         <f>May!J28</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -13186,56 +14434,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="122" t="s">
+      <c r="L4" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="122"/>
+      <c r="M4" s="126"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="122" t="s">
+      <c r="P4" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="122"/>
+      <c r="Q4" s="126"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="122" t="s">
+      <c r="T4" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="122"/>
+      <c r="U4" s="126"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="122" t="s">
+      <c r="X4" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="122"/>
+      <c r="Y4" s="126"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="122" t="s">
+      <c r="AB4" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="122"/>
+      <c r="AC4" s="126"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="122" t="s">
+      <c r="AF4" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="122"/>
+      <c r="AG4" s="126"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
+      <c r="AJ4" s="126"/>
+      <c r="AK4" s="126"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -13253,7 +14501,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -13268,10 +14516,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L6" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="125"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -13315,33 +14563,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="P7" s="127" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="127"/>
-      <c r="T7" s="127" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="127"/>
-      <c r="X7" s="127" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="127"/>
-      <c r="AB7" s="127" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="127"/>
-      <c r="AF7" s="127" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="127"/>
+      <c r="AG7" s="131"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -13365,57 +14613,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="128" t="s">
+      <c r="L8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="128"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="128" t="s">
+      <c r="P8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="128"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="128" t="s">
+      <c r="T8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="128"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="128" t="s">
+      <c r="X8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="128"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="128" t="s">
+      <c r="AB8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="128"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="128" t="s">
+      <c r="AF8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="128"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="124"/>
-      <c r="AK8" s="124"/>
+      <c r="AJ8" s="128"/>
+      <c r="AK8" s="128"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -13567,11 +14815,11 @@
         <v>21</v>
       </c>
       <c r="C13" s="30">
-        <f>0.062*C9</f>
+        <f>0.062*C8</f>
         <v>0</v>
       </c>
       <c r="D13" s="30">
-        <f>0.062*D9</f>
+        <f>0.062*D8</f>
         <v>0</v>
       </c>
       <c r="F13" s="51" t="s">
@@ -13598,11 +14846,11 @@
         <v>22</v>
       </c>
       <c r="C14" s="30">
-        <f>0.0145*C10</f>
+        <f>0.0145*C8</f>
         <v>0</v>
       </c>
       <c r="D14" s="30">
-        <f>0.0145*D10</f>
+        <f>0.0145*D8</f>
         <v>0</v>
       </c>
       <c r="F14" s="51" t="s">
@@ -13754,14 +15002,14 @@
     </row>
     <row r="21" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C21" s="22">
-        <f>0.08*C6</f>
+        <f>0.1*C6</f>
         <v>0</v>
       </c>
       <c r="D21" s="22">
-        <f>0.08*D6</f>
+        <f>0.1*D6</f>
         <v>0</v>
       </c>
       <c r="F21" s="21" t="s">
@@ -13900,7 +15148,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -13959,12 +15207,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="AJ8:AK8"/>
@@ -13981,6 +15223,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13991,7 +15239,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14043,7 +15293,7 @@
       </c>
       <c r="G2" s="2">
         <f>Jun!J28</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -14077,56 +15327,56 @@
         <f>SUM(N4,R4,V4,Z4,AD4,AH4)</f>
         <v>950</v>
       </c>
-      <c r="L4" s="122" t="s">
+      <c r="L4" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="122"/>
+      <c r="M4" s="126"/>
       <c r="N4" s="9">
         <f>150-N8</f>
         <v>150</v>
       </c>
-      <c r="P4" s="122" t="s">
+      <c r="P4" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="122"/>
+      <c r="Q4" s="126"/>
       <c r="R4" s="9">
         <f>100-R8</f>
         <v>100</v>
       </c>
-      <c r="T4" s="122" t="s">
+      <c r="T4" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="122"/>
+      <c r="U4" s="126"/>
       <c r="V4" s="9">
         <f>200-V8</f>
         <v>200</v>
       </c>
-      <c r="X4" s="122" t="s">
+      <c r="X4" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="Y4" s="122"/>
+      <c r="Y4" s="126"/>
       <c r="Z4" s="9">
         <f>100-Z8</f>
         <v>100</v>
       </c>
-      <c r="AB4" s="122" t="s">
+      <c r="AB4" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="AC4" s="122"/>
+      <c r="AC4" s="126"/>
       <c r="AD4" s="9">
         <f>100-AD8</f>
         <v>100</v>
       </c>
-      <c r="AF4" s="122" t="s">
+      <c r="AF4" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="122"/>
+      <c r="AG4" s="126"/>
       <c r="AH4" s="9">
         <f>300-AH8</f>
         <v>300</v>
       </c>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
+      <c r="AJ4" s="126"/>
+      <c r="AK4" s="126"/>
       <c r="AL4" s="9"/>
     </row>
     <row r="5" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -14144,7 +15394,7 @@
       </c>
       <c r="G5" s="4">
         <f>SUM(G2:G4)</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
       <c r="AJ5" s="59"/>
       <c r="AL5" s="9"/>
@@ -14159,10 +15409,10 @@
       <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="125" t="s">
+      <c r="L6" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="125"/>
+      <c r="M6" s="129"/>
       <c r="N6" s="61"/>
       <c r="O6" s="6"/>
       <c r="P6" s="62"/>
@@ -14206,33 +15456,33 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="28"/>
-      <c r="L7" s="126" t="s">
+      <c r="L7" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="P7" s="127" t="s">
+      <c r="M7" s="130"/>
+      <c r="P7" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="127"/>
-      <c r="T7" s="127" t="s">
+      <c r="Q7" s="131"/>
+      <c r="T7" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="127"/>
-      <c r="X7" s="127" t="s">
+      <c r="U7" s="131"/>
+      <c r="X7" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="127"/>
-      <c r="AB7" s="127" t="s">
+      <c r="Y7" s="131"/>
+      <c r="AB7" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="127"/>
-      <c r="AF7" s="127" t="s">
+      <c r="AC7" s="131"/>
+      <c r="AF7" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="127"/>
+      <c r="AG7" s="131"/>
       <c r="AI7" s="10"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
       <c r="AL7" s="96"/>
     </row>
     <row r="8" spans="2:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -14256,57 +15506,57 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="49"/>
-      <c r="L8" s="128" t="s">
+      <c r="L8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="128"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="60">
         <f>SUM(N10:N50)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="128" t="s">
+      <c r="P8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="128"/>
+      <c r="Q8" s="132"/>
       <c r="R8" s="60">
         <f>SUM(R10:R50)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="128" t="s">
+      <c r="T8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="128"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="60">
         <f>SUM(V10:V50)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="128" t="s">
+      <c r="X8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="Y8" s="128"/>
+      <c r="Y8" s="132"/>
       <c r="Z8" s="60">
         <f>SUM(Z10:Z50)</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="128" t="s">
+      <c r="AB8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="128"/>
+      <c r="AC8" s="132"/>
       <c r="AD8" s="60">
         <f>SUM(AD10:AD50)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="128" t="s">
+      <c r="AF8" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="AG8" s="128"/>
+      <c r="AG8" s="132"/>
       <c r="AH8" s="60">
         <f>SUM(AH10:AH50)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="10"/>
-      <c r="AJ8" s="124"/>
-      <c r="AK8" s="124"/>
+      <c r="AJ8" s="128"/>
+      <c r="AK8" s="128"/>
       <c r="AL8" s="111"/>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.2">
@@ -14458,11 +15708,11 @@
         <v>21</v>
       </c>
       <c r="C13" s="30">
-        <f>0.062*C9</f>
+        <f>0.062*C8</f>
         <v>0</v>
       </c>
       <c r="D13" s="30">
-        <f>0.062*D9</f>
+        <f>0.062*D8</f>
         <v>0</v>
       </c>
       <c r="F13" s="51" t="s">
@@ -14489,11 +15739,11 @@
         <v>22</v>
       </c>
       <c r="C14" s="30">
-        <f>0.0145*C10</f>
+        <f>0.0145*C8</f>
         <v>0</v>
       </c>
       <c r="D14" s="30">
-        <f>0.0145*D10</f>
+        <f>0.0145*D8</f>
         <v>0</v>
       </c>
       <c r="F14" s="51" t="s">
@@ -14645,14 +15895,14 @@
     </row>
     <row r="21" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="C21" s="22">
-        <f>0.08*C6</f>
+        <f>0.1*C6</f>
         <v>0</v>
       </c>
       <c r="D21" s="22">
-        <f>0.08*D6</f>
+        <f>0.1*D6</f>
         <v>0</v>
       </c>
       <c r="F21" s="21" t="s">
@@ -14791,7 +16041,7 @@
       </c>
       <c r="J28" s="57">
         <f>G5-J21</f>
-        <v>17994.342499999999</v>
+        <v>27075.589900000003</v>
       </c>
     </row>
     <row r="29" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -14850,12 +16100,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="AJ8:AK8"/>
@@ -14872,6 +16116,12 @@
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
